--- a/INTLINE/data/142/STANOR/08864 External Trade in goods main figures seasonal adjusted.xlsx
+++ b/INTLINE/data/142/STANOR/08864 External Trade in goods main figures seasonal adjusted.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="433">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="436">
   <x:si>
     <x:t>08864: External Trade in goods, main figures (NOK million), by trade flow, contents and month</x:t>
   </x:si>
@@ -1213,6 +1213,15 @@
     <x:t>2022M02</x:t>
   </x:si>
   <x:si>
+    <x:t>2022M03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022M04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022M05</x:t>
+  </x:si>
+  <x:si>
     <x:t>Imports excl. ships and oil platforms</x:t>
   </x:si>
   <x:si>
@@ -1246,7 +1255,7 @@
     <x:t>Value:</x:t>
   </x:si>
   <x:si>
-    <x:t>20220315 08:00</x:t>
+    <x:t>20220615 08:00</x:t>
   </x:si>
   <x:si>
     <x:t>Source:</x:t>
@@ -1705,21 +1714,21 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:OJ59"/>
+  <x:dimension ref="A1:OM59"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="400" width="9.140625" style="0" customWidth="1"/>
+    <x:col min="1" max="403" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:400">
+    <x:row r="1" spans="1:403">
       <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:400">
+    <x:row r="3" spans="1:403">
       <x:c r="C3" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
@@ -2914,13 +2923,22 @@
       <x:c r="OJ3" s="2" t="s">
         <x:v>398</x:v>
       </x:c>
+      <x:c r="OK3" s="2" t="s">
+        <x:v>399</x:v>
+      </x:c>
+      <x:c r="OL3" s="2" t="s">
+        <x:v>400</x:v>
+      </x:c>
+      <x:c r="OM3" s="2" t="s">
+        <x:v>401</x:v>
+      </x:c>
     </x:row>
-    <x:row r="4" spans="1:400">
+    <x:row r="4" spans="1:403">
       <x:c r="A4" s="2" t="s">
-        <x:v>399</x:v>
+        <x:v>402</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>400</x:v>
+        <x:v>403</x:v>
       </x:c>
       <x:c r="C4" s="3" t="n">
         <x:v>10635</x:v>
@@ -3769,7 +3787,7 @@
         <x:v>42709</x:v>
       </x:c>
       <x:c r="JY4" s="3" t="n">
-        <x:v>42947</x:v>
+        <x:v>42948</x:v>
       </x:c>
       <x:c r="JZ4" s="3" t="n">
         <x:v>42502</x:v>
@@ -3796,16 +3814,16 @@
         <x:v>35832</x:v>
       </x:c>
       <x:c r="KH4" s="3" t="n">
-        <x:v>48541</x:v>
+        <x:v>48540</x:v>
       </x:c>
       <x:c r="KI4" s="3" t="n">
         <x:v>42908</x:v>
       </x:c>
       <x:c r="KJ4" s="3" t="n">
-        <x:v>39911</x:v>
+        <x:v>39910</x:v>
       </x:c>
       <x:c r="KK4" s="3" t="n">
-        <x:v>44054</x:v>
+        <x:v>44056</x:v>
       </x:c>
       <x:c r="KL4" s="3" t="n">
         <x:v>44031</x:v>
@@ -3826,22 +3844,22 @@
         <x:v>44910</x:v>
       </x:c>
       <x:c r="KR4" s="3" t="n">
-        <x:v>45891</x:v>
+        <x:v>45890</x:v>
       </x:c>
       <x:c r="KS4" s="3" t="n">
         <x:v>44121</x:v>
       </x:c>
       <x:c r="KT4" s="3" t="n">
-        <x:v>45428</x:v>
+        <x:v>45425</x:v>
       </x:c>
       <x:c r="KU4" s="3" t="n">
-        <x:v>44641</x:v>
+        <x:v>44640</x:v>
       </x:c>
       <x:c r="KV4" s="3" t="n">
         <x:v>44768</x:v>
       </x:c>
       <x:c r="KW4" s="3" t="n">
-        <x:v>47902</x:v>
+        <x:v>47909</x:v>
       </x:c>
       <x:c r="KX4" s="3" t="n">
         <x:v>44829</x:v>
@@ -3853,276 +3871,285 @@
         <x:v>47613</x:v>
       </x:c>
       <x:c r="LA4" s="3" t="n">
-        <x:v>45163</x:v>
+        <x:v>45164</x:v>
       </x:c>
       <x:c r="LB4" s="3" t="n">
-        <x:v>47681</x:v>
+        <x:v>47680</x:v>
       </x:c>
       <x:c r="LC4" s="3" t="n">
-        <x:v>47758</x:v>
+        <x:v>47757</x:v>
       </x:c>
       <x:c r="LD4" s="3" t="n">
-        <x:v>48313</x:v>
+        <x:v>48312</x:v>
       </x:c>
       <x:c r="LE4" s="3" t="n">
         <x:v>51373</x:v>
       </x:c>
       <x:c r="LF4" s="3" t="n">
-        <x:v>48010</x:v>
+        <x:v>47998</x:v>
       </x:c>
       <x:c r="LG4" s="3" t="n">
-        <x:v>45051</x:v>
+        <x:v>45050</x:v>
       </x:c>
       <x:c r="LH4" s="3" t="n">
-        <x:v>51645</x:v>
+        <x:v>51647</x:v>
       </x:c>
       <x:c r="LI4" s="3" t="n">
-        <x:v>44413</x:v>
+        <x:v>44426</x:v>
       </x:c>
       <x:c r="LJ4" s="3" t="n">
-        <x:v>48036</x:v>
+        <x:v>48038</x:v>
       </x:c>
       <x:c r="LK4" s="3" t="n">
-        <x:v>50890</x:v>
+        <x:v>50891</x:v>
       </x:c>
       <x:c r="LL4" s="3" t="n">
-        <x:v>49645</x:v>
+        <x:v>49646</x:v>
       </x:c>
       <x:c r="LM4" s="3" t="n">
-        <x:v>51011</x:v>
+        <x:v>51014</x:v>
       </x:c>
       <x:c r="LN4" s="3" t="n">
-        <x:v>52989</x:v>
+        <x:v>52977</x:v>
       </x:c>
       <x:c r="LO4" s="3" t="n">
         <x:v>46694</x:v>
       </x:c>
       <x:c r="LP4" s="3" t="n">
-        <x:v>50813</x:v>
+        <x:v>50817</x:v>
       </x:c>
       <x:c r="LQ4" s="3" t="n">
         <x:v>45892</x:v>
       </x:c>
       <x:c r="LR4" s="3" t="n">
-        <x:v>50400</x:v>
+        <x:v>50378</x:v>
       </x:c>
       <x:c r="LS4" s="3" t="n">
-        <x:v>48291</x:v>
+        <x:v>48290</x:v>
       </x:c>
       <x:c r="LT4" s="3" t="n">
-        <x:v>49830</x:v>
+        <x:v>49833</x:v>
       </x:c>
       <x:c r="LU4" s="3" t="n">
-        <x:v>55524</x:v>
+        <x:v>55546</x:v>
       </x:c>
       <x:c r="LV4" s="3" t="n">
-        <x:v>63431</x:v>
+        <x:v>63435</x:v>
       </x:c>
       <x:c r="LW4" s="3" t="n">
-        <x:v>49460</x:v>
+        <x:v>49463</x:v>
       </x:c>
       <x:c r="LX4" s="3" t="n">
-        <x:v>48371</x:v>
+        <x:v>48374</x:v>
       </x:c>
       <x:c r="LY4" s="3" t="n">
-        <x:v>50118</x:v>
+        <x:v>50125</x:v>
       </x:c>
       <x:c r="LZ4" s="3" t="n">
-        <x:v>50636</x:v>
+        <x:v>50615</x:v>
       </x:c>
       <x:c r="MA4" s="3" t="n">
-        <x:v>51939</x:v>
+        <x:v>51940</x:v>
       </x:c>
       <x:c r="MB4" s="3" t="n">
-        <x:v>50692</x:v>
+        <x:v>50701</x:v>
       </x:c>
       <x:c r="MC4" s="3" t="n">
         <x:v>52306</x:v>
       </x:c>
       <x:c r="MD4" s="3" t="n">
-        <x:v>44409</x:v>
+        <x:v>44392</x:v>
       </x:c>
       <x:c r="ME4" s="3" t="n">
-        <x:v>56615</x:v>
+        <x:v>56564</x:v>
       </x:c>
       <x:c r="MF4" s="3" t="n">
-        <x:v>64546</x:v>
+        <x:v>64571</x:v>
       </x:c>
       <x:c r="MG4" s="3" t="n">
-        <x:v>47483</x:v>
+        <x:v>47509</x:v>
       </x:c>
       <x:c r="MH4" s="3" t="n">
-        <x:v>55670</x:v>
+        <x:v>55684</x:v>
       </x:c>
       <x:c r="MI4" s="3" t="n">
-        <x:v>52928</x:v>
+        <x:v>52942</x:v>
       </x:c>
       <x:c r="MJ4" s="3" t="n">
-        <x:v>53505</x:v>
+        <x:v>53519</x:v>
       </x:c>
       <x:c r="MK4" s="3" t="n">
-        <x:v>74870</x:v>
+        <x:v>74891</x:v>
       </x:c>
       <x:c r="ML4" s="3" t="n">
-        <x:v>55624</x:v>
+        <x:v>55574</x:v>
       </x:c>
       <x:c r="MM4" s="3" t="n">
-        <x:v>57431</x:v>
+        <x:v>57441</x:v>
       </x:c>
       <x:c r="MN4" s="3" t="n">
-        <x:v>54792</x:v>
+        <x:v>54803</x:v>
       </x:c>
       <x:c r="MO4" s="3" t="n">
-        <x:v>59380</x:v>
+        <x:v>59373</x:v>
       </x:c>
       <x:c r="MP4" s="3" t="n">
-        <x:v>64109</x:v>
+        <x:v>64090</x:v>
       </x:c>
       <x:c r="MQ4" s="3" t="n">
-        <x:v>59821</x:v>
+        <x:v>59707</x:v>
       </x:c>
       <x:c r="MR4" s="3" t="n">
-        <x:v>58051</x:v>
+        <x:v>58084</x:v>
       </x:c>
       <x:c r="MS4" s="3" t="n">
-        <x:v>57199</x:v>
+        <x:v>57231</x:v>
       </x:c>
       <x:c r="MT4" s="3" t="n">
-        <x:v>58611</x:v>
+        <x:v>58635</x:v>
       </x:c>
       <x:c r="MU4" s="3" t="n">
-        <x:v>57232</x:v>
+        <x:v>57272</x:v>
       </x:c>
       <x:c r="MV4" s="3" t="n">
-        <x:v>62351</x:v>
+        <x:v>62397</x:v>
       </x:c>
       <x:c r="MW4" s="3" t="n">
-        <x:v>61730</x:v>
+        <x:v>61771</x:v>
       </x:c>
       <x:c r="MX4" s="3" t="n">
-        <x:v>55839</x:v>
+        <x:v>55712</x:v>
       </x:c>
       <x:c r="MY4" s="3" t="n">
-        <x:v>63657</x:v>
+        <x:v>63709</x:v>
       </x:c>
       <x:c r="MZ4" s="3" t="n">
-        <x:v>67482</x:v>
+        <x:v>67570</x:v>
       </x:c>
       <x:c r="NA4" s="3" t="n">
-        <x:v>61187</x:v>
+        <x:v>61015</x:v>
       </x:c>
       <x:c r="NB4" s="3" t="n">
-        <x:v>62979</x:v>
+        <x:v>63260</x:v>
       </x:c>
       <x:c r="NC4" s="3" t="n">
-        <x:v>63005</x:v>
+        <x:v>62688</x:v>
       </x:c>
       <x:c r="ND4" s="3" t="n">
-        <x:v>59000</x:v>
+        <x:v>59037</x:v>
       </x:c>
       <x:c r="NE4" s="3" t="n">
-        <x:v>62529</x:v>
+        <x:v>62552</x:v>
       </x:c>
       <x:c r="NF4" s="3" t="n">
-        <x:v>61341</x:v>
+        <x:v>61373</x:v>
       </x:c>
       <x:c r="NG4" s="3" t="n">
-        <x:v>64546</x:v>
+        <x:v>64616</x:v>
       </x:c>
       <x:c r="NH4" s="3" t="n">
-        <x:v>62980</x:v>
+        <x:v>63056</x:v>
       </x:c>
       <x:c r="NI4" s="3" t="n">
-        <x:v>58981</x:v>
+        <x:v>59043</x:v>
       </x:c>
       <x:c r="NJ4" s="3" t="n">
-        <x:v>63017</x:v>
+        <x:v>62750</x:v>
       </x:c>
       <x:c r="NK4" s="3" t="n">
-        <x:v>64914</x:v>
+        <x:v>65003</x:v>
       </x:c>
       <x:c r="NL4" s="3" t="n">
-        <x:v>59795</x:v>
+        <x:v>59968</x:v>
       </x:c>
       <x:c r="NM4" s="3" t="n">
-        <x:v>63244</x:v>
+        <x:v>62852</x:v>
       </x:c>
       <x:c r="NN4" s="3" t="n">
-        <x:v>57188</x:v>
+        <x:v>57842</x:v>
       </x:c>
       <x:c r="NO4" s="3" t="n">
-        <x:v>53952</x:v>
+        <x:v>53526</x:v>
       </x:c>
       <x:c r="NP4" s="3" t="n">
-        <x:v>64829</x:v>
+        <x:v>64616</x:v>
       </x:c>
       <x:c r="NQ4" s="3" t="n">
-        <x:v>63927</x:v>
+        <x:v>63897</x:v>
       </x:c>
       <x:c r="NR4" s="3" t="n">
-        <x:v>61328</x:v>
+        <x:v>61305</x:v>
       </x:c>
       <x:c r="NS4" s="3" t="n">
-        <x:v>65746</x:v>
+        <x:v>65814</x:v>
       </x:c>
       <x:c r="NT4" s="3" t="n">
-        <x:v>64904</x:v>
+        <x:v>64975</x:v>
       </x:c>
       <x:c r="NU4" s="3" t="n">
-        <x:v>65722</x:v>
+        <x:v>65795</x:v>
       </x:c>
       <x:c r="NV4" s="3" t="n">
-        <x:v>66268</x:v>
+        <x:v>66126</x:v>
       </x:c>
       <x:c r="NW4" s="3" t="n">
-        <x:v>59995</x:v>
+        <x:v>60113</x:v>
       </x:c>
       <x:c r="NX4" s="3" t="n">
-        <x:v>63554</x:v>
+        <x:v>63806</x:v>
       </x:c>
       <x:c r="NY4" s="3" t="n">
-        <x:v>66446</x:v>
+        <x:v>65684</x:v>
       </x:c>
       <x:c r="NZ4" s="3" t="n">
-        <x:v>67949</x:v>
+        <x:v>69452</x:v>
       </x:c>
       <x:c r="OA4" s="3" t="n">
-        <x:v>68371</x:v>
+        <x:v>67637</x:v>
       </x:c>
       <x:c r="OB4" s="3" t="n">
-        <x:v>72006</x:v>
+        <x:v>71985</x:v>
       </x:c>
       <x:c r="OC4" s="3" t="n">
-        <x:v>68996</x:v>
+        <x:v>68946</x:v>
       </x:c>
       <x:c r="OD4" s="3" t="n">
-        <x:v>75613</x:v>
+        <x:v>75580</x:v>
       </x:c>
       <x:c r="OE4" s="3" t="n">
-        <x:v>71341</x:v>
+        <x:v>71276</x:v>
       </x:c>
       <x:c r="OF4" s="3" t="n">
-        <x:v>69397</x:v>
+        <x:v>69358</x:v>
       </x:c>
       <x:c r="OG4" s="3" t="n">
-        <x:v>75915</x:v>
+        <x:v>75969</x:v>
       </x:c>
       <x:c r="OH4" s="3" t="n">
-        <x:v>77776</x:v>
+        <x:v>78991</x:v>
       </x:c>
       <x:c r="OI4" s="3" t="n">
-        <x:v>74448</x:v>
+        <x:v>74860</x:v>
       </x:c>
       <x:c r="OJ4" s="3" t="n">
-        <x:v>77350</x:v>
+        <x:v>77638</x:v>
+      </x:c>
+      <x:c r="OK4" s="3" t="n">
+        <x:v>81187</x:v>
+      </x:c>
+      <x:c r="OL4" s="3" t="n">
+        <x:v>77893</x:v>
+      </x:c>
+      <x:c r="OM4" s="3" t="n">
+        <x:v>83213</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:400">
+    <x:row r="5" spans="1:403">
       <x:c r="A5" s="2" t="s">
-        <x:v>401</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>400</x:v>
+        <x:v>403</x:v>
       </x:c>
       <x:c r="C5" s="3" t="n">
         <x:v>13824</x:v>
@@ -4839,7 +4866,7 @@
         <x:v>79395</x:v>
       </x:c>
       <x:c r="IG5" s="3" t="n">
-        <x:v>73084</x:v>
+        <x:v>73085</x:v>
       </x:c>
       <x:c r="IH5" s="3" t="n">
         <x:v>70071</x:v>
@@ -4869,16 +4896,16 @@
         <x:v>57748</x:v>
       </x:c>
       <x:c r="IQ5" s="3" t="n">
-        <x:v>60549</x:v>
+        <x:v>60550</x:v>
       </x:c>
       <x:c r="IR5" s="3" t="n">
-        <x:v>60096</x:v>
+        <x:v>60097</x:v>
       </x:c>
       <x:c r="IS5" s="3" t="n">
         <x:v>60451</x:v>
       </x:c>
       <x:c r="IT5" s="3" t="n">
-        <x:v>58983</x:v>
+        <x:v>58982</x:v>
       </x:c>
       <x:c r="IU5" s="3" t="n">
         <x:v>60888</x:v>
@@ -4887,13 +4914,13 @@
         <x:v>63978</x:v>
       </x:c>
       <x:c r="IW5" s="3" t="n">
-        <x:v>63016</x:v>
+        <x:v>63015</x:v>
       </x:c>
       <x:c r="IX5" s="3" t="n">
-        <x:v>64289</x:v>
+        <x:v>64288</x:v>
       </x:c>
       <x:c r="IY5" s="3" t="n">
-        <x:v>61837</x:v>
+        <x:v>61836</x:v>
       </x:c>
       <x:c r="IZ5" s="3" t="n">
         <x:v>69594</x:v>
@@ -4905,31 +4932,31 @@
         <x:v>59791</x:v>
       </x:c>
       <x:c r="JC5" s="3" t="n">
-        <x:v>66686</x:v>
+        <x:v>66690</x:v>
       </x:c>
       <x:c r="JD5" s="3" t="n">
-        <x:v>64188</x:v>
+        <x:v>64190</x:v>
       </x:c>
       <x:c r="JE5" s="3" t="n">
         <x:v>69447</x:v>
       </x:c>
       <x:c r="JF5" s="3" t="n">
-        <x:v>73686</x:v>
+        <x:v>73685</x:v>
       </x:c>
       <x:c r="JG5" s="3" t="n">
-        <x:v>72677</x:v>
+        <x:v>72676</x:v>
       </x:c>
       <x:c r="JH5" s="3" t="n">
-        <x:v>69653</x:v>
+        <x:v>69651</x:v>
       </x:c>
       <x:c r="JI5" s="3" t="n">
-        <x:v>74237</x:v>
+        <x:v>74236</x:v>
       </x:c>
       <x:c r="JJ5" s="3" t="n">
-        <x:v>80095</x:v>
+        <x:v>80093</x:v>
       </x:c>
       <x:c r="JK5" s="3" t="n">
-        <x:v>71585</x:v>
+        <x:v>71584</x:v>
       </x:c>
       <x:c r="JL5" s="3" t="n">
         <x:v>71799</x:v>
@@ -4941,10 +4968,10 @@
         <x:v>75202</x:v>
       </x:c>
       <x:c r="JO5" s="3" t="n">
-        <x:v>78040</x:v>
+        <x:v>78048</x:v>
       </x:c>
       <x:c r="JP5" s="3" t="n">
-        <x:v>69026</x:v>
+        <x:v>69031</x:v>
       </x:c>
       <x:c r="JQ5" s="3" t="n">
         <x:v>77224</x:v>
@@ -4953,13 +4980,13 @@
         <x:v>78445</x:v>
       </x:c>
       <x:c r="JS5" s="3" t="n">
-        <x:v>78286</x:v>
+        <x:v>78278</x:v>
       </x:c>
       <x:c r="JT5" s="3" t="n">
-        <x:v>82523</x:v>
+        <x:v>82522</x:v>
       </x:c>
       <x:c r="JU5" s="3" t="n">
-        <x:v>82118</x:v>
+        <x:v>82111</x:v>
       </x:c>
       <x:c r="JV5" s="3" t="n">
         <x:v>78463</x:v>
@@ -4968,546 +4995,555 @@
         <x:v>84222</x:v>
       </x:c>
       <x:c r="JX5" s="3" t="n">
-        <x:v>76822</x:v>
+        <x:v>76823</x:v>
       </x:c>
       <x:c r="JY5" s="3" t="n">
-        <x:v>73832</x:v>
+        <x:v>73833</x:v>
       </x:c>
       <x:c r="JZ5" s="3" t="n">
-        <x:v>79032</x:v>
+        <x:v>79034</x:v>
       </x:c>
       <x:c r="KA5" s="3" t="n">
-        <x:v>68371</x:v>
+        <x:v>68381</x:v>
       </x:c>
       <x:c r="KB5" s="3" t="n">
-        <x:v>78472</x:v>
+        <x:v>78479</x:v>
       </x:c>
       <x:c r="KC5" s="3" t="n">
-        <x:v>73023</x:v>
+        <x:v>73026</x:v>
       </x:c>
       <x:c r="KD5" s="3" t="n">
-        <x:v>71522</x:v>
+        <x:v>71525</x:v>
       </x:c>
       <x:c r="KE5" s="3" t="n">
-        <x:v>71327</x:v>
+        <x:v>71305</x:v>
       </x:c>
       <x:c r="KF5" s="3" t="n">
-        <x:v>74148</x:v>
+        <x:v>74151</x:v>
       </x:c>
       <x:c r="KG5" s="3" t="n">
-        <x:v>70689</x:v>
+        <x:v>70680</x:v>
       </x:c>
       <x:c r="KH5" s="3" t="n">
-        <x:v>73181</x:v>
+        <x:v>73182</x:v>
       </x:c>
       <x:c r="KI5" s="3" t="n">
-        <x:v>75326</x:v>
+        <x:v>75327</x:v>
       </x:c>
       <x:c r="KJ5" s="3" t="n">
-        <x:v>79260</x:v>
+        <x:v>79262</x:v>
       </x:c>
       <x:c r="KK5" s="3" t="n">
-        <x:v>81627</x:v>
+        <x:v>81630</x:v>
       </x:c>
       <x:c r="KL5" s="3" t="n">
-        <x:v>77633</x:v>
+        <x:v>77638</x:v>
       </x:c>
       <x:c r="KM5" s="3" t="n">
-        <x:v>70873</x:v>
+        <x:v>70887</x:v>
       </x:c>
       <x:c r="KN5" s="3" t="n">
-        <x:v>75898</x:v>
+        <x:v>75907</x:v>
       </x:c>
       <x:c r="KO5" s="3" t="n">
-        <x:v>82424</x:v>
+        <x:v>82430</x:v>
       </x:c>
       <x:c r="KP5" s="3" t="n">
-        <x:v>77848</x:v>
+        <x:v>77854</x:v>
       </x:c>
       <x:c r="KQ5" s="3" t="n">
-        <x:v>82837</x:v>
+        <x:v>82792</x:v>
       </x:c>
       <x:c r="KR5" s="3" t="n">
-        <x:v>77523</x:v>
+        <x:v>77527</x:v>
       </x:c>
       <x:c r="KS5" s="3" t="n">
-        <x:v>76512</x:v>
+        <x:v>76497</x:v>
       </x:c>
       <x:c r="KT5" s="3" t="n">
-        <x:v>78056</x:v>
+        <x:v>78058</x:v>
       </x:c>
       <x:c r="KU5" s="3" t="n">
-        <x:v>74494</x:v>
+        <x:v>74496</x:v>
       </x:c>
       <x:c r="KV5" s="3" t="n">
-        <x:v>69068</x:v>
+        <x:v>69072</x:v>
       </x:c>
       <x:c r="KW5" s="3" t="n">
-        <x:v>72548</x:v>
+        <x:v>72557</x:v>
       </x:c>
       <x:c r="KX5" s="3" t="n">
-        <x:v>72106</x:v>
+        <x:v>72119</x:v>
       </x:c>
       <x:c r="KY5" s="3" t="n">
-        <x:v>74819</x:v>
+        <x:v>74840</x:v>
       </x:c>
       <x:c r="KZ5" s="3" t="n">
-        <x:v>80948</x:v>
+        <x:v>80961</x:v>
       </x:c>
       <x:c r="LA5" s="3" t="n">
-        <x:v>69448</x:v>
+        <x:v>69450</x:v>
       </x:c>
       <x:c r="LB5" s="3" t="n">
-        <x:v>72546</x:v>
+        <x:v>72542</x:v>
       </x:c>
       <x:c r="LC5" s="3" t="n">
-        <x:v>64179</x:v>
+        <x:v>64125</x:v>
       </x:c>
       <x:c r="LD5" s="3" t="n">
-        <x:v>69432</x:v>
+        <x:v>69429</x:v>
       </x:c>
       <x:c r="LE5" s="3" t="n">
-        <x:v>74476</x:v>
+        <x:v>74462</x:v>
       </x:c>
       <x:c r="LF5" s="3" t="n">
-        <x:v>67191</x:v>
+        <x:v>67200</x:v>
       </x:c>
       <x:c r="LG5" s="3" t="n">
-        <x:v>69925</x:v>
+        <x:v>69936</x:v>
       </x:c>
       <x:c r="LH5" s="3" t="n">
-        <x:v>74211</x:v>
+        <x:v>74228</x:v>
       </x:c>
       <x:c r="LI5" s="3" t="n">
-        <x:v>71916</x:v>
+        <x:v>71935</x:v>
       </x:c>
       <x:c r="LJ5" s="3" t="n">
-        <x:v>67597</x:v>
+        <x:v>67612</x:v>
       </x:c>
       <x:c r="LK5" s="3" t="n">
-        <x:v>72029</x:v>
+        <x:v>72040</x:v>
       </x:c>
       <x:c r="LL5" s="3" t="n">
-        <x:v>69511</x:v>
+        <x:v>69591</x:v>
       </x:c>
       <x:c r="LM5" s="3" t="n">
-        <x:v>63851</x:v>
+        <x:v>63825</x:v>
       </x:c>
       <x:c r="LN5" s="3" t="n">
-        <x:v>63213</x:v>
+        <x:v>63140</x:v>
       </x:c>
       <x:c r="LO5" s="3" t="n">
-        <x:v>55625</x:v>
+        <x:v>55555</x:v>
       </x:c>
       <x:c r="LP5" s="3" t="n">
-        <x:v>59778</x:v>
+        <x:v>59761</x:v>
       </x:c>
       <x:c r="LQ5" s="3" t="n">
-        <x:v>58427</x:v>
+        <x:v>58414</x:v>
       </x:c>
       <x:c r="LR5" s="3" t="n">
-        <x:v>62777</x:v>
+        <x:v>62795</x:v>
       </x:c>
       <x:c r="LS5" s="3" t="n">
-        <x:v>60380</x:v>
+        <x:v>60497</x:v>
       </x:c>
       <x:c r="LT5" s="3" t="n">
-        <x:v>62003</x:v>
+        <x:v>62029</x:v>
       </x:c>
       <x:c r="LU5" s="3" t="n">
-        <x:v>62005</x:v>
+        <x:v>62031</x:v>
       </x:c>
       <x:c r="LV5" s="3" t="n">
-        <x:v>62042</x:v>
+        <x:v>62055</x:v>
       </x:c>
       <x:c r="LW5" s="3" t="n">
-        <x:v>60746</x:v>
+        <x:v>60738</x:v>
       </x:c>
       <x:c r="LX5" s="3" t="n">
-        <x:v>61812</x:v>
+        <x:v>61929</x:v>
       </x:c>
       <x:c r="LY5" s="3" t="n">
-        <x:v>65702</x:v>
+        <x:v>65667</x:v>
       </x:c>
       <x:c r="LZ5" s="3" t="n">
-        <x:v>65979</x:v>
+        <x:v>65772</x:v>
       </x:c>
       <x:c r="MA5" s="3" t="n">
-        <x:v>67979</x:v>
+        <x:v>67740</x:v>
       </x:c>
       <x:c r="MB5" s="3" t="n">
-        <x:v>70289</x:v>
+        <x:v>70287</x:v>
       </x:c>
       <x:c r="MC5" s="3" t="n">
-        <x:v>71793</x:v>
+        <x:v>71776</x:v>
       </x:c>
       <x:c r="MD5" s="3" t="n">
-        <x:v>69741</x:v>
+        <x:v>69926</x:v>
       </x:c>
       <x:c r="ME5" s="3" t="n">
-        <x:v>71290</x:v>
+        <x:v>71595</x:v>
       </x:c>
       <x:c r="MF5" s="3" t="n">
-        <x:v>71823</x:v>
+        <x:v>71844</x:v>
       </x:c>
       <x:c r="MG5" s="3" t="n">
-        <x:v>67016</x:v>
+        <x:v>67176</x:v>
       </x:c>
       <x:c r="MH5" s="3" t="n">
-        <x:v>71948</x:v>
+        <x:v>71945</x:v>
       </x:c>
       <x:c r="MI5" s="3" t="n">
-        <x:v>70502</x:v>
+        <x:v>70273</x:v>
       </x:c>
       <x:c r="MJ5" s="3" t="n">
-        <x:v>70145</x:v>
+        <x:v>70386</x:v>
       </x:c>
       <x:c r="MK5" s="3" t="n">
-        <x:v>74048</x:v>
+        <x:v>74019</x:v>
       </x:c>
       <x:c r="ML5" s="3" t="n">
-        <x:v>72583</x:v>
+        <x:v>72052</x:v>
       </x:c>
       <x:c r="MM5" s="3" t="n">
-        <x:v>76488</x:v>
+        <x:v>75996</x:v>
       </x:c>
       <x:c r="MN5" s="3" t="n">
-        <x:v>77923</x:v>
+        <x:v>78008</x:v>
       </x:c>
       <x:c r="MO5" s="3" t="n">
-        <x:v>77487</x:v>
+        <x:v>77505</x:v>
       </x:c>
       <x:c r="MP5" s="3" t="n">
-        <x:v>82001</x:v>
+        <x:v>82682</x:v>
       </x:c>
       <x:c r="MQ5" s="3" t="n">
-        <x:v>82714</x:v>
+        <x:v>83276</x:v>
       </x:c>
       <x:c r="MR5" s="3" t="n">
-        <x:v>84940</x:v>
+        <x:v>84840</x:v>
       </x:c>
       <x:c r="MS5" s="3" t="n">
-        <x:v>87597</x:v>
+        <x:v>88003</x:v>
       </x:c>
       <x:c r="MT5" s="3" t="n">
-        <x:v>91543</x:v>
+        <x:v>91408</x:v>
       </x:c>
       <x:c r="MU5" s="3" t="n">
-        <x:v>86791</x:v>
+        <x:v>86218</x:v>
       </x:c>
       <x:c r="MV5" s="3" t="n">
-        <x:v>90988</x:v>
+        <x:v>91410</x:v>
       </x:c>
       <x:c r="MW5" s="3" t="n">
-        <x:v>81994</x:v>
+        <x:v>82158</x:v>
       </x:c>
       <x:c r="MX5" s="3" t="n">
-        <x:v>73311</x:v>
+        <x:v>72335</x:v>
       </x:c>
       <x:c r="MY5" s="3" t="n">
-        <x:v>79846</x:v>
+        <x:v>78906</x:v>
       </x:c>
       <x:c r="MZ5" s="3" t="n">
-        <x:v>78264</x:v>
+        <x:v>78681</x:v>
       </x:c>
       <x:c r="NA5" s="3" t="n">
-        <x:v>79944</x:v>
+        <x:v>79886</x:v>
       </x:c>
       <x:c r="NB5" s="3" t="n">
-        <x:v>77488</x:v>
+        <x:v>78873</x:v>
       </x:c>
       <x:c r="NC5" s="3" t="n">
-        <x:v>80482</x:v>
+        <x:v>81124</x:v>
       </x:c>
       <x:c r="ND5" s="3" t="n">
-        <x:v>71292</x:v>
+        <x:v>71072</x:v>
       </x:c>
       <x:c r="NE5" s="3" t="n">
-        <x:v>72036</x:v>
+        <x:v>72559</x:v>
       </x:c>
       <x:c r="NF5" s="3" t="n">
-        <x:v>69667</x:v>
+        <x:v>69424</x:v>
       </x:c>
       <x:c r="NG5" s="3" t="n">
-        <x:v>69610</x:v>
+        <x:v>68857</x:v>
       </x:c>
       <x:c r="NH5" s="3" t="n">
-        <x:v>70386</x:v>
+        <x:v>70847</x:v>
       </x:c>
       <x:c r="NI5" s="3" t="n">
-        <x:v>80602</x:v>
+        <x:v>80979</x:v>
       </x:c>
       <x:c r="NJ5" s="3" t="n">
-        <x:v>76593</x:v>
+        <x:v>75070</x:v>
       </x:c>
       <x:c r="NK5" s="3" t="n">
-        <x:v>70666</x:v>
+        <x:v>71181</x:v>
       </x:c>
       <x:c r="NL5" s="3" t="n">
-        <x:v>73360</x:v>
+        <x:v>73830</x:v>
       </x:c>
       <x:c r="NM5" s="3" t="n">
-        <x:v>61871</x:v>
+        <x:v>60250</x:v>
       </x:c>
       <x:c r="NN5" s="3" t="n">
-        <x:v>52855</x:v>
+        <x:v>55332</x:v>
       </x:c>
       <x:c r="NO5" s="3" t="n">
-        <x:v>54566</x:v>
+        <x:v>54552</x:v>
       </x:c>
       <x:c r="NP5" s="3" t="n">
-        <x:v>63198</x:v>
+        <x:v>62401</x:v>
       </x:c>
       <x:c r="NQ5" s="3" t="n">
-        <x:v>64931</x:v>
+        <x:v>63072</x:v>
       </x:c>
       <x:c r="NR5" s="3" t="n">
-        <x:v>62463</x:v>
+        <x:v>61827</x:v>
       </x:c>
       <x:c r="NS5" s="3" t="n">
-        <x:v>64035</x:v>
+        <x:v>65607</x:v>
       </x:c>
       <x:c r="NT5" s="3" t="n">
-        <x:v>66145</x:v>
+        <x:v>65711</x:v>
       </x:c>
       <x:c r="NU5" s="3" t="n">
-        <x:v>66001</x:v>
+        <x:v>66228</x:v>
       </x:c>
       <x:c r="NV5" s="3" t="n">
-        <x:v>68169</x:v>
+        <x:v>68744</x:v>
       </x:c>
       <x:c r="NW5" s="3" t="n">
-        <x:v>73639</x:v>
+        <x:v>73022</x:v>
       </x:c>
       <x:c r="NX5" s="3" t="n">
-        <x:v>80395</x:v>
+        <x:v>80800</x:v>
       </x:c>
       <x:c r="NY5" s="3" t="n">
-        <x:v>88979</x:v>
+        <x:v>88428</x:v>
       </x:c>
       <x:c r="NZ5" s="3" t="n">
-        <x:v>91567</x:v>
+        <x:v>91190</x:v>
       </x:c>
       <x:c r="OA5" s="3" t="n">
-        <x:v>95837</x:v>
+        <x:v>97940</x:v>
       </x:c>
       <x:c r="OB5" s="3" t="n">
-        <x:v>105263</x:v>
+        <x:v>107886</x:v>
       </x:c>
       <x:c r="OC5" s="3" t="n">
-        <x:v>112360</x:v>
+        <x:v>113677</x:v>
       </x:c>
       <x:c r="OD5" s="3" t="n">
-        <x:v>123723</x:v>
+        <x:v>125591</x:v>
       </x:c>
       <x:c r="OE5" s="3" t="n">
-        <x:v>138221</x:v>
+        <x:v>137456</x:v>
       </x:c>
       <x:c r="OF5" s="3" t="n">
-        <x:v>141757</x:v>
+        <x:v>143225</x:v>
       </x:c>
       <x:c r="OG5" s="3" t="n">
-        <x:v>147845</x:v>
+        <x:v>149122</x:v>
       </x:c>
       <x:c r="OH5" s="3" t="n">
-        <x:v>162624</x:v>
+        <x:v>158838</x:v>
       </x:c>
       <x:c r="OI5" s="3" t="n">
-        <x:v>148947</x:v>
+        <x:v>145969</x:v>
       </x:c>
       <x:c r="OJ5" s="3" t="n">
-        <x:v>157107</x:v>
+        <x:v>160039</x:v>
+      </x:c>
+      <x:c r="OK5" s="3" t="n">
+        <x:v>212486</x:v>
+      </x:c>
+      <x:c r="OL5" s="3" t="n">
+        <x:v>178842</x:v>
+      </x:c>
+      <x:c r="OM5" s="3" t="n">
+        <x:v>188701</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:400">
+    <x:row r="6" spans="1:403">
       <x:c r="A6" s="2" t="s">
-        <x:v>402</x:v>
+        <x:v>405</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>400</x:v>
+        <x:v>403</x:v>
       </x:c>
       <x:c r="C6" s="3" t="n">
-        <x:v>8721</x:v>
+        <x:v>8712</x:v>
       </x:c>
       <x:c r="D6" s="3" t="n">
-        <x:v>8608</x:v>
+        <x:v>8605</x:v>
       </x:c>
       <x:c r="E6" s="3" t="n">
-        <x:v>8355</x:v>
+        <x:v>8369</x:v>
       </x:c>
       <x:c r="F6" s="3" t="n">
-        <x:v>9156</x:v>
+        <x:v>9154</x:v>
       </x:c>
       <x:c r="G6" s="3" t="n">
-        <x:v>8874</x:v>
+        <x:v>8876</x:v>
       </x:c>
       <x:c r="H6" s="3" t="n">
-        <x:v>9144</x:v>
+        <x:v>9138</x:v>
       </x:c>
       <x:c r="I6" s="3" t="n">
-        <x:v>9343</x:v>
+        <x:v>9345</x:v>
       </x:c>
       <x:c r="J6" s="3" t="n">
-        <x:v>9217</x:v>
+        <x:v>9207</x:v>
       </x:c>
       <x:c r="K6" s="3" t="n">
-        <x:v>8463</x:v>
+        <x:v>8479</x:v>
       </x:c>
       <x:c r="L6" s="3" t="n">
-        <x:v>8987</x:v>
+        <x:v>8978</x:v>
       </x:c>
       <x:c r="M6" s="3" t="n">
-        <x:v>9301</x:v>
+        <x:v>9291</x:v>
       </x:c>
       <x:c r="N6" s="3" t="n">
-        <x:v>9309</x:v>
+        <x:v>9314</x:v>
       </x:c>
       <x:c r="O6" s="3" t="n">
-        <x:v>9419</x:v>
+        <x:v>9422</x:v>
       </x:c>
       <x:c r="P6" s="3" t="n">
-        <x:v>9301</x:v>
+        <x:v>9297</x:v>
       </x:c>
       <x:c r="Q6" s="3" t="n">
-        <x:v>8689</x:v>
+        <x:v>8696</x:v>
       </x:c>
       <x:c r="R6" s="3" t="n">
-        <x:v>9263</x:v>
+        <x:v>9265</x:v>
       </x:c>
       <x:c r="S6" s="3" t="n">
-        <x:v>9154</x:v>
+        <x:v>9145</x:v>
       </x:c>
       <x:c r="T6" s="3" t="n">
-        <x:v>9106</x:v>
+        <x:v>9115</x:v>
       </x:c>
       <x:c r="U6" s="3" t="n">
-        <x:v>9219</x:v>
+        <x:v>9209</x:v>
       </x:c>
       <x:c r="V6" s="3" t="n">
-        <x:v>9421</x:v>
+        <x:v>9422</x:v>
       </x:c>
       <x:c r="W6" s="3" t="n">
-        <x:v>9614</x:v>
+        <x:v>9619</x:v>
       </x:c>
       <x:c r="X6" s="3" t="n">
-        <x:v>9811</x:v>
+        <x:v>9816</x:v>
       </x:c>
       <x:c r="Y6" s="3" t="n">
-        <x:v>10085</x:v>
+        <x:v>10074</x:v>
       </x:c>
       <x:c r="Z6" s="3" t="n">
-        <x:v>9474</x:v>
+        <x:v>9478</x:v>
       </x:c>
       <x:c r="AA6" s="3" t="n">
-        <x:v>9678</x:v>
+        <x:v>9669</x:v>
       </x:c>
       <x:c r="AB6" s="3" t="n">
-        <x:v>9356</x:v>
+        <x:v>9353</x:v>
       </x:c>
       <x:c r="AC6" s="3" t="n">
-        <x:v>9883</x:v>
+        <x:v>9904</x:v>
       </x:c>
       <x:c r="AD6" s="3" t="n">
-        <x:v>9061</x:v>
+        <x:v>9053</x:v>
       </x:c>
       <x:c r="AE6" s="3" t="n">
-        <x:v>9207</x:v>
+        <x:v>9209</x:v>
       </x:c>
       <x:c r="AF6" s="3" t="n">
-        <x:v>9301</x:v>
+        <x:v>9299</x:v>
       </x:c>
       <x:c r="AG6" s="3" t="n">
-        <x:v>9225</x:v>
+        <x:v>9227</x:v>
       </x:c>
       <x:c r="AH6" s="3" t="n">
-        <x:v>8715</x:v>
+        <x:v>8716</x:v>
       </x:c>
       <x:c r="AI6" s="3" t="n">
-        <x:v>9233</x:v>
+        <x:v>9231</x:v>
       </x:c>
       <x:c r="AJ6" s="3" t="n">
-        <x:v>8720</x:v>
+        <x:v>8712</x:v>
       </x:c>
       <x:c r="AK6" s="3" t="n">
-        <x:v>8383</x:v>
+        <x:v>8388</x:v>
       </x:c>
       <x:c r="AL6" s="3" t="n">
-        <x:v>8756</x:v>
+        <x:v>8749</x:v>
       </x:c>
       <x:c r="AM6" s="3" t="n">
-        <x:v>8539</x:v>
+        <x:v>8541</x:v>
       </x:c>
       <x:c r="AN6" s="3" t="n">
-        <x:v>8856</x:v>
+        <x:v>8861</x:v>
       </x:c>
       <x:c r="AO6" s="3" t="n">
-        <x:v>9285</x:v>
+        <x:v>9283</x:v>
       </x:c>
       <x:c r="AP6" s="3" t="n">
-        <x:v>9032</x:v>
+        <x:v>9031</x:v>
       </x:c>
       <x:c r="AQ6" s="3" t="n">
-        <x:v>9273</x:v>
+        <x:v>9278</x:v>
       </x:c>
       <x:c r="AR6" s="3" t="n">
-        <x:v>8798</x:v>
+        <x:v>8795</x:v>
       </x:c>
       <x:c r="AS6" s="3" t="n">
-        <x:v>9054</x:v>
+        <x:v>9055</x:v>
       </x:c>
       <x:c r="AT6" s="3" t="n">
-        <x:v>9035</x:v>
+        <x:v>9036</x:v>
       </x:c>
       <x:c r="AU6" s="3" t="n">
         <x:v>8947</x:v>
       </x:c>
       <x:c r="AV6" s="3" t="n">
-        <x:v>8861</x:v>
+        <x:v>8865</x:v>
       </x:c>
       <x:c r="AW6" s="3" t="n">
-        <x:v>9420</x:v>
+        <x:v>9408</x:v>
       </x:c>
       <x:c r="AX6" s="3" t="n">
-        <x:v>8706</x:v>
+        <x:v>8703</x:v>
       </x:c>
       <x:c r="AY6" s="3" t="n">
-        <x:v>8548</x:v>
+        <x:v>8552</x:v>
       </x:c>
       <x:c r="AZ6" s="3" t="n">
-        <x:v>9024</x:v>
+        <x:v>9023</x:v>
       </x:c>
       <x:c r="BA6" s="3" t="n">
-        <x:v>8526</x:v>
+        <x:v>8535</x:v>
       </x:c>
       <x:c r="BB6" s="3" t="n">
-        <x:v>9558</x:v>
+        <x:v>9555</x:v>
       </x:c>
       <x:c r="BC6" s="3" t="n">
-        <x:v>9239</x:v>
+        <x:v>9243</x:v>
       </x:c>
       <x:c r="BD6" s="3" t="n">
         <x:v>9739</x:v>
       </x:c>
       <x:c r="BE6" s="3" t="n">
-        <x:v>9106</x:v>
+        <x:v>9108</x:v>
       </x:c>
       <x:c r="BF6" s="3" t="n">
-        <x:v>10488</x:v>
+        <x:v>10476</x:v>
       </x:c>
       <x:c r="BG6" s="3" t="n">
-        <x:v>8981</x:v>
+        <x:v>8976</x:v>
       </x:c>
       <x:c r="BH6" s="3" t="n">
-        <x:v>9712</x:v>
+        <x:v>9719</x:v>
       </x:c>
       <x:c r="BI6" s="3" t="n">
-        <x:v>9551</x:v>
+        <x:v>9540</x:v>
       </x:c>
       <x:c r="BJ6" s="3" t="n">
-        <x:v>9947</x:v>
+        <x:v>9956</x:v>
       </x:c>
       <x:c r="BK6" s="3" t="n">
-        <x:v>9778</x:v>
+        <x:v>9781</x:v>
       </x:c>
       <x:c r="BL6" s="3" t="n">
         <x:v>9928</x:v>
@@ -5516,1017 +5552,1026 @@
         <x:v>9682</x:v>
       </x:c>
       <x:c r="BN6" s="3" t="n">
-        <x:v>9818</x:v>
+        <x:v>9830</x:v>
       </x:c>
       <x:c r="BO6" s="3" t="n">
-        <x:v>10338</x:v>
+        <x:v>10327</x:v>
       </x:c>
       <x:c r="BP6" s="3" t="n">
-        <x:v>10670</x:v>
+        <x:v>10668</x:v>
       </x:c>
       <x:c r="BQ6" s="3" t="n">
-        <x:v>10838</x:v>
+        <x:v>10840</x:v>
       </x:c>
       <x:c r="BR6" s="3" t="n">
-        <x:v>11228</x:v>
+        <x:v>11232</x:v>
       </x:c>
       <x:c r="BS6" s="3" t="n">
-        <x:v>11506</x:v>
+        <x:v>11497</x:v>
       </x:c>
       <x:c r="BT6" s="3" t="n">
-        <x:v>12518</x:v>
+        <x:v>12525</x:v>
       </x:c>
       <x:c r="BU6" s="3" t="n">
-        <x:v>10111</x:v>
+        <x:v>10103</x:v>
       </x:c>
       <x:c r="BV6" s="3" t="n">
-        <x:v>12609</x:v>
+        <x:v>12622</x:v>
       </x:c>
       <x:c r="BW6" s="3" t="n">
-        <x:v>12205</x:v>
+        <x:v>12190</x:v>
       </x:c>
       <x:c r="BX6" s="3" t="n">
-        <x:v>12086</x:v>
+        <x:v>12087</x:v>
       </x:c>
       <x:c r="BY6" s="3" t="n">
-        <x:v>12316</x:v>
+        <x:v>12330</x:v>
       </x:c>
       <x:c r="BZ6" s="3" t="n">
-        <x:v>11588</x:v>
+        <x:v>11586</x:v>
       </x:c>
       <x:c r="CA6" s="3" t="n">
-        <x:v>12106</x:v>
+        <x:v>12110</x:v>
       </x:c>
       <x:c r="CB6" s="3" t="n">
-        <x:v>10322</x:v>
+        <x:v>10318</x:v>
       </x:c>
       <x:c r="CC6" s="3" t="n">
         <x:v>12292</x:v>
       </x:c>
       <x:c r="CD6" s="3" t="n">
-        <x:v>12057</x:v>
+        <x:v>12047</x:v>
       </x:c>
       <x:c r="CE6" s="3" t="n">
-        <x:v>12129</x:v>
+        <x:v>12140</x:v>
       </x:c>
       <x:c r="CF6" s="3" t="n">
-        <x:v>12192</x:v>
+        <x:v>12181</x:v>
       </x:c>
       <x:c r="CG6" s="3" t="n">
-        <x:v>11435</x:v>
+        <x:v>11423</x:v>
       </x:c>
       <x:c r="CH6" s="3" t="n">
-        <x:v>12320</x:v>
+        <x:v>12334</x:v>
       </x:c>
       <x:c r="CI6" s="3" t="n">
-        <x:v>12785</x:v>
+        <x:v>12787</x:v>
       </x:c>
       <x:c r="CJ6" s="3" t="n">
-        <x:v>12700</x:v>
+        <x:v>12689</x:v>
       </x:c>
       <x:c r="CK6" s="3" t="n">
-        <x:v>12889</x:v>
+        <x:v>12909</x:v>
       </x:c>
       <x:c r="CL6" s="3" t="n">
-        <x:v>13024</x:v>
+        <x:v>13019</x:v>
       </x:c>
       <x:c r="CM6" s="3" t="n">
-        <x:v>12105</x:v>
+        <x:v>12106</x:v>
       </x:c>
       <x:c r="CN6" s="3" t="n">
         <x:v>12787</x:v>
       </x:c>
       <x:c r="CO6" s="3" t="n">
-        <x:v>12865</x:v>
+        <x:v>12866</x:v>
       </x:c>
       <x:c r="CP6" s="3" t="n">
-        <x:v>13012</x:v>
+        <x:v>13020</x:v>
       </x:c>
       <x:c r="CQ6" s="3" t="n">
-        <x:v>12525</x:v>
+        <x:v>12515</x:v>
       </x:c>
       <x:c r="CR6" s="3" t="n">
-        <x:v>13175</x:v>
+        <x:v>13165</x:v>
       </x:c>
       <x:c r="CS6" s="3" t="n">
-        <x:v>13442</x:v>
+        <x:v>13451</x:v>
       </x:c>
       <x:c r="CT6" s="3" t="n">
-        <x:v>13281</x:v>
+        <x:v>13274</x:v>
       </x:c>
       <x:c r="CU6" s="3" t="n">
-        <x:v>13270</x:v>
+        <x:v>13269</x:v>
       </x:c>
       <x:c r="CV6" s="3" t="n">
         <x:v>13132</x:v>
       </x:c>
       <x:c r="CW6" s="3" t="n">
-        <x:v>12663</x:v>
+        <x:v>12694</x:v>
       </x:c>
       <x:c r="CX6" s="3" t="n">
-        <x:v>14103</x:v>
+        <x:v>14091</x:v>
       </x:c>
       <x:c r="CY6" s="3" t="n">
-        <x:v>13885</x:v>
+        <x:v>13886</x:v>
       </x:c>
       <x:c r="CZ6" s="3" t="n">
-        <x:v>14185</x:v>
+        <x:v>14179</x:v>
       </x:c>
       <x:c r="DA6" s="3" t="n">
-        <x:v>14367</x:v>
+        <x:v>14351</x:v>
       </x:c>
       <x:c r="DB6" s="3" t="n">
-        <x:v>15239</x:v>
+        <x:v>15251</x:v>
       </x:c>
       <x:c r="DC6" s="3" t="n">
-        <x:v>14645</x:v>
+        <x:v>14636</x:v>
       </x:c>
       <x:c r="DD6" s="3" t="n">
-        <x:v>14384</x:v>
+        <x:v>14388</x:v>
       </x:c>
       <x:c r="DE6" s="3" t="n">
-        <x:v>14956</x:v>
+        <x:v>14949</x:v>
       </x:c>
       <x:c r="DF6" s="3" t="n">
-        <x:v>14370</x:v>
+        <x:v>14380</x:v>
       </x:c>
       <x:c r="DG6" s="3" t="n">
         <x:v>15160</x:v>
       </x:c>
       <x:c r="DH6" s="3" t="n">
-        <x:v>15490</x:v>
+        <x:v>15488</x:v>
       </x:c>
       <x:c r="DI6" s="3" t="n">
-        <x:v>15474</x:v>
+        <x:v>15476</x:v>
       </x:c>
       <x:c r="DJ6" s="3" t="n">
-        <x:v>14485</x:v>
+        <x:v>14483</x:v>
       </x:c>
       <x:c r="DK6" s="3" t="n">
         <x:v>14524</x:v>
       </x:c>
       <x:c r="DL6" s="3" t="n">
-        <x:v>14233</x:v>
+        <x:v>14231</x:v>
       </x:c>
       <x:c r="DM6" s="3" t="n">
-        <x:v>15088</x:v>
+        <x:v>15089</x:v>
       </x:c>
       <x:c r="DN6" s="3" t="n">
-        <x:v>14440</x:v>
+        <x:v>14449</x:v>
       </x:c>
       <x:c r="DO6" s="3" t="n">
-        <x:v>14886</x:v>
+        <x:v>14882</x:v>
       </x:c>
       <x:c r="DP6" s="3" t="n">
-        <x:v>14851</x:v>
+        <x:v>14855</x:v>
       </x:c>
       <x:c r="DQ6" s="3" t="n">
-        <x:v>14840</x:v>
+        <x:v>14830</x:v>
       </x:c>
       <x:c r="DR6" s="3" t="n">
-        <x:v>14262</x:v>
+        <x:v>14252</x:v>
       </x:c>
       <x:c r="DS6" s="3" t="n">
-        <x:v>13149</x:v>
+        <x:v>13150</x:v>
       </x:c>
       <x:c r="DT6" s="3" t="n">
-        <x:v>14556</x:v>
+        <x:v>14555</x:v>
       </x:c>
       <x:c r="DU6" s="3" t="n">
-        <x:v>15440</x:v>
+        <x:v>15458</x:v>
       </x:c>
       <x:c r="DV6" s="3" t="n">
-        <x:v>15110</x:v>
+        <x:v>15107</x:v>
       </x:c>
       <x:c r="DW6" s="3" t="n">
-        <x:v>14759</x:v>
+        <x:v>14758</x:v>
       </x:c>
       <x:c r="DX6" s="3" t="n">
-        <x:v>15323</x:v>
+        <x:v>15330</x:v>
       </x:c>
       <x:c r="DY6" s="3" t="n">
-        <x:v>14804</x:v>
+        <x:v>14807</x:v>
       </x:c>
       <x:c r="DZ6" s="3" t="n">
-        <x:v>15312</x:v>
+        <x:v>15300</x:v>
       </x:c>
       <x:c r="EA6" s="3" t="n">
-        <x:v>16296</x:v>
+        <x:v>16287</x:v>
       </x:c>
       <x:c r="EB6" s="3" t="n">
-        <x:v>16387</x:v>
+        <x:v>16394</x:v>
       </x:c>
       <x:c r="EC6" s="3" t="n">
-        <x:v>16128</x:v>
+        <x:v>16122</x:v>
       </x:c>
       <x:c r="ED6" s="3" t="n">
-        <x:v>16181</x:v>
+        <x:v>16186</x:v>
       </x:c>
       <x:c r="EE6" s="3" t="n">
-        <x:v>16866</x:v>
+        <x:v>16865</x:v>
       </x:c>
       <x:c r="EF6" s="3" t="n">
-        <x:v>16658</x:v>
+        <x:v>16646</x:v>
       </x:c>
       <x:c r="EG6" s="3" t="n">
-        <x:v>16517</x:v>
+        <x:v>16527</x:v>
       </x:c>
       <x:c r="EH6" s="3" t="n">
-        <x:v>17642</x:v>
+        <x:v>17644</x:v>
       </x:c>
       <x:c r="EI6" s="3" t="n">
-        <x:v>18350</x:v>
+        <x:v>18352</x:v>
       </x:c>
       <x:c r="EJ6" s="3" t="n">
-        <x:v>17752</x:v>
+        <x:v>17756</x:v>
       </x:c>
       <x:c r="EK6" s="3" t="n">
-        <x:v>18193</x:v>
+        <x:v>18195</x:v>
       </x:c>
       <x:c r="EL6" s="3" t="n">
-        <x:v>18703</x:v>
+        <x:v>18694</x:v>
       </x:c>
       <x:c r="EM6" s="3" t="n">
-        <x:v>18066</x:v>
+        <x:v>18084</x:v>
       </x:c>
       <x:c r="EN6" s="3" t="n">
-        <x:v>18350</x:v>
+        <x:v>18329</x:v>
       </x:c>
       <x:c r="EO6" s="3" t="n">
-        <x:v>19086</x:v>
+        <x:v>19080</x:v>
       </x:c>
       <x:c r="EP6" s="3" t="n">
-        <x:v>19235</x:v>
+        <x:v>19245</x:v>
       </x:c>
       <x:c r="EQ6" s="3" t="n">
-        <x:v>19236</x:v>
+        <x:v>19239</x:v>
       </x:c>
       <x:c r="ER6" s="3" t="n">
         <x:v>18751</x:v>
       </x:c>
       <x:c r="ES6" s="3" t="n">
-        <x:v>17850</x:v>
+        <x:v>17851</x:v>
       </x:c>
       <x:c r="ET6" s="3" t="n">
-        <x:v>18169</x:v>
+        <x:v>18164</x:v>
       </x:c>
       <x:c r="EU6" s="3" t="n">
-        <x:v>18807</x:v>
+        <x:v>18792</x:v>
       </x:c>
       <x:c r="EV6" s="3" t="n">
-        <x:v>18856</x:v>
+        <x:v>18892</x:v>
       </x:c>
       <x:c r="EW6" s="3" t="n">
-        <x:v>17636</x:v>
+        <x:v>17615</x:v>
       </x:c>
       <x:c r="EX6" s="3" t="n">
-        <x:v>17096</x:v>
+        <x:v>17109</x:v>
       </x:c>
       <x:c r="EY6" s="3" t="n">
-        <x:v>17103</x:v>
+        <x:v>17098</x:v>
       </x:c>
       <x:c r="EZ6" s="3" t="n">
-        <x:v>17418</x:v>
+        <x:v>17424</x:v>
       </x:c>
       <x:c r="FA6" s="3" t="n">
-        <x:v>17042</x:v>
+        <x:v>17033</x:v>
       </x:c>
       <x:c r="FB6" s="3" t="n">
-        <x:v>18343</x:v>
+        <x:v>18349</x:v>
       </x:c>
       <x:c r="FC6" s="3" t="n">
-        <x:v>16518</x:v>
+        <x:v>16500</x:v>
       </x:c>
       <x:c r="FD6" s="3" t="n">
-        <x:v>17108</x:v>
+        <x:v>17109</x:v>
       </x:c>
       <x:c r="FE6" s="3" t="n">
-        <x:v>17607</x:v>
+        <x:v>17622</x:v>
       </x:c>
       <x:c r="FF6" s="3" t="n">
-        <x:v>16567</x:v>
+        <x:v>16549</x:v>
       </x:c>
       <x:c r="FG6" s="3" t="n">
-        <x:v>16608</x:v>
+        <x:v>16617</x:v>
       </x:c>
       <x:c r="FH6" s="3" t="n">
-        <x:v>17162</x:v>
+        <x:v>17171</x:v>
       </x:c>
       <x:c r="FI6" s="3" t="n">
-        <x:v>16581</x:v>
+        <x:v>16584</x:v>
       </x:c>
       <x:c r="FJ6" s="3" t="n">
-        <x:v>16663</x:v>
+        <x:v>16679</x:v>
       </x:c>
       <x:c r="FK6" s="3" t="n">
-        <x:v>17055</x:v>
+        <x:v>17045</x:v>
       </x:c>
       <x:c r="FL6" s="3" t="n">
-        <x:v>15737</x:v>
+        <x:v>15723</x:v>
       </x:c>
       <x:c r="FM6" s="3" t="n">
-        <x:v>15738</x:v>
+        <x:v>15754</x:v>
       </x:c>
       <x:c r="FN6" s="3" t="n">
-        <x:v>16525</x:v>
+        <x:v>16508</x:v>
       </x:c>
       <x:c r="FO6" s="3" t="n">
-        <x:v>16029</x:v>
+        <x:v>16031</x:v>
       </x:c>
       <x:c r="FP6" s="3" t="n">
-        <x:v>16334</x:v>
+        <x:v>16335</x:v>
       </x:c>
       <x:c r="FQ6" s="3" t="n">
-        <x:v>15826</x:v>
+        <x:v>15818</x:v>
       </x:c>
       <x:c r="FR6" s="3" t="n">
-        <x:v>16924</x:v>
+        <x:v>16928</x:v>
       </x:c>
       <x:c r="FS6" s="3" t="n">
-        <x:v>17740</x:v>
+        <x:v>17754</x:v>
       </x:c>
       <x:c r="FT6" s="3" t="n">
         <x:v>16132</x:v>
       </x:c>
       <x:c r="FU6" s="3" t="n">
-        <x:v>17251</x:v>
+        <x:v>17233</x:v>
       </x:c>
       <x:c r="FV6" s="3" t="n">
-        <x:v>15995</x:v>
+        <x:v>16013</x:v>
       </x:c>
       <x:c r="FW6" s="3" t="n">
-        <x:v>17188</x:v>
+        <x:v>17180</x:v>
       </x:c>
       <x:c r="FX6" s="3" t="n">
-        <x:v>17973</x:v>
+        <x:v>17978</x:v>
       </x:c>
       <x:c r="FY6" s="3" t="n">
-        <x:v>17546</x:v>
+        <x:v>17541</x:v>
       </x:c>
       <x:c r="FZ6" s="3" t="n">
-        <x:v>16445</x:v>
+        <x:v>16451</x:v>
       </x:c>
       <x:c r="GA6" s="3" t="n">
-        <x:v>17617</x:v>
+        <x:v>17622</x:v>
       </x:c>
       <x:c r="GB6" s="3" t="n">
-        <x:v>17544</x:v>
+        <x:v>17531</x:v>
       </x:c>
       <x:c r="GC6" s="3" t="n">
-        <x:v>19061</x:v>
+        <x:v>19054</x:v>
       </x:c>
       <x:c r="GD6" s="3" t="n">
-        <x:v>17842</x:v>
+        <x:v>17838</x:v>
       </x:c>
       <x:c r="GE6" s="3" t="n">
-        <x:v>17807</x:v>
+        <x:v>17822</x:v>
       </x:c>
       <x:c r="GF6" s="3" t="n">
-        <x:v>18704</x:v>
+        <x:v>18711</x:v>
       </x:c>
       <x:c r="GG6" s="3" t="n">
-        <x:v>18468</x:v>
+        <x:v>18473</x:v>
       </x:c>
       <x:c r="GH6" s="3" t="n">
-        <x:v>19363</x:v>
+        <x:v>19355</x:v>
       </x:c>
       <x:c r="GI6" s="3" t="n">
-        <x:v>19585</x:v>
+        <x:v>19575</x:v>
       </x:c>
       <x:c r="GJ6" s="3" t="n">
-        <x:v>18849</x:v>
+        <x:v>18859</x:v>
       </x:c>
       <x:c r="GK6" s="3" t="n">
-        <x:v>19989</x:v>
+        <x:v>19980</x:v>
       </x:c>
       <x:c r="GL6" s="3" t="n">
-        <x:v>19558</x:v>
+        <x:v>19561</x:v>
       </x:c>
       <x:c r="GM6" s="3" t="n">
-        <x:v>19467</x:v>
+        <x:v>19471</x:v>
       </x:c>
       <x:c r="GN6" s="3" t="n">
         <x:v>20626</x:v>
       </x:c>
       <x:c r="GO6" s="3" t="n">
-        <x:v>20569</x:v>
+        <x:v>20562</x:v>
       </x:c>
       <x:c r="GP6" s="3" t="n">
-        <x:v>20785</x:v>
+        <x:v>20794</x:v>
       </x:c>
       <x:c r="GQ6" s="3" t="n">
-        <x:v>20528</x:v>
+        <x:v>20515</x:v>
       </x:c>
       <x:c r="GR6" s="3" t="n">
-        <x:v>20185</x:v>
+        <x:v>20184</x:v>
       </x:c>
       <x:c r="GS6" s="3" t="n">
-        <x:v>20931</x:v>
+        <x:v>20941</x:v>
       </x:c>
       <x:c r="GT6" s="3" t="n">
-        <x:v>21260</x:v>
+        <x:v>21279</x:v>
       </x:c>
       <x:c r="GU6" s="3" t="n">
-        <x:v>21356</x:v>
+        <x:v>21338</x:v>
       </x:c>
       <x:c r="GV6" s="3" t="n">
-        <x:v>23279</x:v>
+        <x:v>23288</x:v>
       </x:c>
       <x:c r="GW6" s="3" t="n">
         <x:v>20742</x:v>
       </x:c>
       <x:c r="GX6" s="3" t="n">
-        <x:v>23313</x:v>
+        <x:v>23315</x:v>
       </x:c>
       <x:c r="GY6" s="3" t="n">
-        <x:v>23729</x:v>
+        <x:v>23707</x:v>
       </x:c>
       <x:c r="GZ6" s="3" t="n">
-        <x:v>23631</x:v>
+        <x:v>23627</x:v>
       </x:c>
       <x:c r="HA6" s="3" t="n">
-        <x:v>24403</x:v>
+        <x:v>24406</x:v>
       </x:c>
       <x:c r="HB6" s="3" t="n">
-        <x:v>24582</x:v>
+        <x:v>24584</x:v>
       </x:c>
       <x:c r="HC6" s="3" t="n">
-        <x:v>24227</x:v>
+        <x:v>24246</x:v>
       </x:c>
       <x:c r="HD6" s="3" t="n">
-        <x:v>25622</x:v>
+        <x:v>25618</x:v>
       </x:c>
       <x:c r="HE6" s="3" t="n">
-        <x:v>24815</x:v>
+        <x:v>24825</x:v>
       </x:c>
       <x:c r="HF6" s="3" t="n">
-        <x:v>26496</x:v>
+        <x:v>26479</x:v>
       </x:c>
       <x:c r="HG6" s="3" t="n">
-        <x:v>25101</x:v>
+        <x:v>25116</x:v>
       </x:c>
       <x:c r="HH6" s="3" t="n">
-        <x:v>26301</x:v>
+        <x:v>26275</x:v>
       </x:c>
       <x:c r="HI6" s="3" t="n">
-        <x:v>26464</x:v>
+        <x:v>26458</x:v>
       </x:c>
       <x:c r="HJ6" s="3" t="n">
-        <x:v>26788</x:v>
+        <x:v>26790</x:v>
       </x:c>
       <x:c r="HK6" s="3" t="n">
-        <x:v>27196</x:v>
+        <x:v>27214</x:v>
       </x:c>
       <x:c r="HL6" s="3" t="n">
-        <x:v>26673</x:v>
+        <x:v>26666</x:v>
       </x:c>
       <x:c r="HM6" s="3" t="n">
-        <x:v>27598</x:v>
+        <x:v>27614</x:v>
       </x:c>
       <x:c r="HN6" s="3" t="n">
-        <x:v>27950</x:v>
+        <x:v>27943</x:v>
       </x:c>
       <x:c r="HO6" s="3" t="n">
-        <x:v>27582</x:v>
+        <x:v>27568</x:v>
       </x:c>
       <x:c r="HP6" s="3" t="n">
-        <x:v>31166</x:v>
+        <x:v>31213</x:v>
       </x:c>
       <x:c r="HQ6" s="3" t="n">
-        <x:v>27765</x:v>
+        <x:v>27740</x:v>
       </x:c>
       <x:c r="HR6" s="3" t="n">
-        <x:v>26908</x:v>
+        <x:v>26914</x:v>
       </x:c>
       <x:c r="HS6" s="3" t="n">
-        <x:v>25610</x:v>
+        <x:v>25592</x:v>
       </x:c>
       <x:c r="HT6" s="3" t="n">
-        <x:v>27091</x:v>
+        <x:v>27099</x:v>
       </x:c>
       <x:c r="HU6" s="3" t="n">
-        <x:v>28141</x:v>
+        <x:v>28132</x:v>
       </x:c>
       <x:c r="HV6" s="3" t="n">
-        <x:v>31237</x:v>
+        <x:v>31232</x:v>
       </x:c>
       <x:c r="HW6" s="3" t="n">
-        <x:v>29692</x:v>
+        <x:v>29678</x:v>
       </x:c>
       <x:c r="HX6" s="3" t="n">
-        <x:v>30163</x:v>
+        <x:v>30169</x:v>
       </x:c>
       <x:c r="HY6" s="3" t="n">
-        <x:v>28924</x:v>
+        <x:v>28970</x:v>
       </x:c>
       <x:c r="HZ6" s="3" t="n">
-        <x:v>29680</x:v>
+        <x:v>29665</x:v>
       </x:c>
       <x:c r="IA6" s="3" t="n">
-        <x:v>30881</x:v>
+        <x:v>30906</x:v>
       </x:c>
       <x:c r="IB6" s="3" t="n">
-        <x:v>30511</x:v>
+        <x:v>30499</x:v>
       </x:c>
       <x:c r="IC6" s="3" t="n">
-        <x:v>31258</x:v>
+        <x:v>31234</x:v>
       </x:c>
       <x:c r="ID6" s="3" t="n">
-        <x:v>30736</x:v>
+        <x:v>30747</x:v>
       </x:c>
       <x:c r="IE6" s="3" t="n">
-        <x:v>30747</x:v>
+        <x:v>30718</x:v>
       </x:c>
       <x:c r="IF6" s="3" t="n">
-        <x:v>29323</x:v>
+        <x:v>29324</x:v>
       </x:c>
       <x:c r="IG6" s="3" t="n">
-        <x:v>27838</x:v>
+        <x:v>27839</x:v>
       </x:c>
       <x:c r="IH6" s="3" t="n">
         <x:v>27094</x:v>
       </x:c>
       <x:c r="II6" s="3" t="n">
-        <x:v>24835</x:v>
+        <x:v>24854</x:v>
       </x:c>
       <x:c r="IJ6" s="3" t="n">
-        <x:v>25655</x:v>
+        <x:v>25646</x:v>
       </x:c>
       <x:c r="IK6" s="3" t="n">
-        <x:v>24726</x:v>
+        <x:v>24709</x:v>
       </x:c>
       <x:c r="IL6" s="3" t="n">
-        <x:v>24458</x:v>
+        <x:v>24469</x:v>
       </x:c>
       <x:c r="IM6" s="3" t="n">
-        <x:v>23412</x:v>
+        <x:v>23434</x:v>
       </x:c>
       <x:c r="IN6" s="3" t="n">
-        <x:v>24534</x:v>
+        <x:v>24525</x:v>
       </x:c>
       <x:c r="IO6" s="3" t="n">
-        <x:v>27172</x:v>
+        <x:v>27177</x:v>
       </x:c>
       <x:c r="IP6" s="3" t="n">
-        <x:v>25277</x:v>
+        <x:v>25280</x:v>
       </x:c>
       <x:c r="IQ6" s="3" t="n">
-        <x:v>25505</x:v>
+        <x:v>25495</x:v>
       </x:c>
       <x:c r="IR6" s="3" t="n">
-        <x:v>26869</x:v>
+        <x:v>26868</x:v>
       </x:c>
       <x:c r="IS6" s="3" t="n">
-        <x:v>26759</x:v>
+        <x:v>26749</x:v>
       </x:c>
       <x:c r="IT6" s="3" t="n">
-        <x:v>25909</x:v>
+        <x:v>25879</x:v>
       </x:c>
       <x:c r="IU6" s="3" t="n">
-        <x:v>27429</x:v>
+        <x:v>27454</x:v>
       </x:c>
       <x:c r="IV6" s="3" t="n">
-        <x:v>26839</x:v>
+        <x:v>26830</x:v>
       </x:c>
       <x:c r="IW6" s="3" t="n">
-        <x:v>27296</x:v>
+        <x:v>27311</x:v>
       </x:c>
       <x:c r="IX6" s="3" t="n">
-        <x:v>25694</x:v>
+        <x:v>25709</x:v>
       </x:c>
       <x:c r="IY6" s="3" t="n">
-        <x:v>27801</x:v>
+        <x:v>27825</x:v>
       </x:c>
       <x:c r="IZ6" s="3" t="n">
-        <x:v>28020</x:v>
+        <x:v>28011</x:v>
       </x:c>
       <x:c r="JA6" s="3" t="n">
-        <x:v>28039</x:v>
+        <x:v>28042</x:v>
       </x:c>
       <x:c r="JB6" s="3" t="n">
-        <x:v>27866</x:v>
+        <x:v>27831</x:v>
       </x:c>
       <x:c r="JC6" s="3" t="n">
-        <x:v>28553</x:v>
+        <x:v>28542</x:v>
       </x:c>
       <x:c r="JD6" s="3" t="n">
-        <x:v>27557</x:v>
+        <x:v>27560</x:v>
       </x:c>
       <x:c r="JE6" s="3" t="n">
-        <x:v>28927</x:v>
+        <x:v>28918</x:v>
       </x:c>
       <x:c r="JF6" s="3" t="n">
-        <x:v>29088</x:v>
+        <x:v>29090</x:v>
       </x:c>
       <x:c r="JG6" s="3" t="n">
-        <x:v>28919</x:v>
+        <x:v>28940</x:v>
       </x:c>
       <x:c r="JH6" s="3" t="n">
-        <x:v>29459</x:v>
+        <x:v>29451</x:v>
       </x:c>
       <x:c r="JI6" s="3" t="n">
-        <x:v>29704</x:v>
+        <x:v>29681</x:v>
       </x:c>
       <x:c r="JJ6" s="3" t="n">
-        <x:v>31955</x:v>
+        <x:v>32027</x:v>
       </x:c>
       <x:c r="JK6" s="3" t="n">
-        <x:v>31258</x:v>
+        <x:v>31244</x:v>
       </x:c>
       <x:c r="JL6" s="3" t="n">
-        <x:v>28826</x:v>
+        <x:v>28804</x:v>
       </x:c>
       <x:c r="JM6" s="3" t="n">
-        <x:v>30752</x:v>
+        <x:v>30757</x:v>
       </x:c>
       <x:c r="JN6" s="3" t="n">
-        <x:v>29944</x:v>
+        <x:v>29948</x:v>
       </x:c>
       <x:c r="JO6" s="3" t="n">
-        <x:v>30116</x:v>
+        <x:v>30108</x:v>
       </x:c>
       <x:c r="JP6" s="3" t="n">
-        <x:v>29588</x:v>
+        <x:v>29587</x:v>
       </x:c>
       <x:c r="JQ6" s="3" t="n">
         <x:v>29664</x:v>
       </x:c>
       <x:c r="JR6" s="3" t="n">
-        <x:v>31056</x:v>
+        <x:v>31061</x:v>
       </x:c>
       <x:c r="JS6" s="3" t="n">
-        <x:v>30307</x:v>
+        <x:v>30286</x:v>
       </x:c>
       <x:c r="JT6" s="3" t="n">
-        <x:v>30158</x:v>
+        <x:v>30172</x:v>
       </x:c>
       <x:c r="JU6" s="3" t="n">
-        <x:v>30605</x:v>
+        <x:v>30616</x:v>
       </x:c>
       <x:c r="JV6" s="3" t="n">
-        <x:v>30032</x:v>
+        <x:v>30048</x:v>
       </x:c>
       <x:c r="JW6" s="3" t="n">
-        <x:v>30111</x:v>
+        <x:v>30102</x:v>
       </x:c>
       <x:c r="JX6" s="3" t="n">
-        <x:v>30156</x:v>
+        <x:v>30177</x:v>
       </x:c>
       <x:c r="JY6" s="3" t="n">
-        <x:v>28635</x:v>
+        <x:v>28595</x:v>
       </x:c>
       <x:c r="JZ6" s="3" t="n">
-        <x:v>29980</x:v>
+        <x:v>29981</x:v>
       </x:c>
       <x:c r="KA6" s="3" t="n">
-        <x:v>30934</x:v>
+        <x:v>30939</x:v>
       </x:c>
       <x:c r="KB6" s="3" t="n">
-        <x:v>29657</x:v>
+        <x:v>29663</x:v>
       </x:c>
       <x:c r="KC6" s="3" t="n">
-        <x:v>29529</x:v>
+        <x:v>29516</x:v>
       </x:c>
       <x:c r="KD6" s="3" t="n">
-        <x:v>29371</x:v>
+        <x:v>29375</x:v>
       </x:c>
       <x:c r="KE6" s="3" t="n">
-        <x:v>29901</x:v>
+        <x:v>29883</x:v>
       </x:c>
       <x:c r="KF6" s="3" t="n">
-        <x:v>30370</x:v>
+        <x:v>30367</x:v>
       </x:c>
       <x:c r="KG6" s="3" t="n">
-        <x:v>30701</x:v>
+        <x:v>30748</x:v>
       </x:c>
       <x:c r="KH6" s="3" t="n">
-        <x:v>28573</x:v>
+        <x:v>28558</x:v>
       </x:c>
       <x:c r="KI6" s="3" t="n">
-        <x:v>27879</x:v>
+        <x:v>27898</x:v>
       </x:c>
       <x:c r="KJ6" s="3" t="n">
-        <x:v>32644</x:v>
+        <x:v>32627</x:v>
       </x:c>
       <x:c r="KK6" s="3" t="n">
-        <x:v>30899</x:v>
+        <x:v>30903</x:v>
       </x:c>
       <x:c r="KL6" s="3" t="n">
-        <x:v>30988</x:v>
+        <x:v>30992</x:v>
       </x:c>
       <x:c r="KM6" s="3" t="n">
-        <x:v>29786</x:v>
+        <x:v>29776</x:v>
       </x:c>
       <x:c r="KN6" s="3" t="n">
-        <x:v>30580</x:v>
+        <x:v>30550</x:v>
       </x:c>
       <x:c r="KO6" s="3" t="n">
-        <x:v>32080</x:v>
+        <x:v>32118</x:v>
       </x:c>
       <x:c r="KP6" s="3" t="n">
-        <x:v>29815</x:v>
+        <x:v>29780</x:v>
       </x:c>
       <x:c r="KQ6" s="3" t="n">
-        <x:v>33012</x:v>
+        <x:v>33030</x:v>
       </x:c>
       <x:c r="KR6" s="3" t="n">
-        <x:v>32172</x:v>
+        <x:v>32169</x:v>
       </x:c>
       <x:c r="KS6" s="3" t="n">
-        <x:v>30458</x:v>
+        <x:v>30470</x:v>
       </x:c>
       <x:c r="KT6" s="3" t="n">
-        <x:v>32193</x:v>
+        <x:v>32208</x:v>
       </x:c>
       <x:c r="KU6" s="3" t="n">
-        <x:v>32711</x:v>
+        <x:v>32736</x:v>
       </x:c>
       <x:c r="KV6" s="3" t="n">
-        <x:v>29805</x:v>
+        <x:v>29782</x:v>
       </x:c>
       <x:c r="KW6" s="3" t="n">
-        <x:v>31396</x:v>
+        <x:v>31364</x:v>
       </x:c>
       <x:c r="KX6" s="3" t="n">
-        <x:v>32647</x:v>
+        <x:v>32655</x:v>
       </x:c>
       <x:c r="KY6" s="3" t="n">
-        <x:v>32091</x:v>
+        <x:v>32079</x:v>
       </x:c>
       <x:c r="KZ6" s="3" t="n">
-        <x:v>34337</x:v>
+        <x:v>34347</x:v>
       </x:c>
       <x:c r="LA6" s="3" t="n">
-        <x:v>32937</x:v>
+        <x:v>32935</x:v>
       </x:c>
       <x:c r="LB6" s="3" t="n">
-        <x:v>33488</x:v>
+        <x:v>33499</x:v>
       </x:c>
       <x:c r="LC6" s="3" t="n">
-        <x:v>33517</x:v>
+        <x:v>33537</x:v>
       </x:c>
       <x:c r="LD6" s="3" t="n">
-        <x:v>32482</x:v>
+        <x:v>32481</x:v>
       </x:c>
       <x:c r="LE6" s="3" t="n">
-        <x:v>34215</x:v>
+        <x:v>34182</x:v>
       </x:c>
       <x:c r="LF6" s="3" t="n">
         <x:v>33534</x:v>
       </x:c>
       <x:c r="LG6" s="3" t="n">
-        <x:v>33290</x:v>
+        <x:v>33317</x:v>
       </x:c>
       <x:c r="LH6" s="3" t="n">
-        <x:v>33448</x:v>
+        <x:v>33433</x:v>
       </x:c>
       <x:c r="LI6" s="3" t="n">
-        <x:v>34393</x:v>
+        <x:v>34401</x:v>
       </x:c>
       <x:c r="LJ6" s="3" t="n">
         <x:v>32813</x:v>
       </x:c>
       <x:c r="LK6" s="3" t="n">
-        <x:v>34510</x:v>
+        <x:v>34499</x:v>
       </x:c>
       <x:c r="LL6" s="3" t="n">
-        <x:v>34047</x:v>
+        <x:v>34062</x:v>
       </x:c>
       <x:c r="LM6" s="3" t="n">
-        <x:v>33257</x:v>
+        <x:v>33243</x:v>
       </x:c>
       <x:c r="LN6" s="3" t="n">
-        <x:v>34116</x:v>
+        <x:v>34098</x:v>
       </x:c>
       <x:c r="LO6" s="3" t="n">
-        <x:v>31989</x:v>
+        <x:v>32012</x:v>
       </x:c>
       <x:c r="LP6" s="3" t="n">
-        <x:v>32713</x:v>
+        <x:v>32723</x:v>
       </x:c>
       <x:c r="LQ6" s="3" t="n">
-        <x:v>31690</x:v>
+        <x:v>31665</x:v>
       </x:c>
       <x:c r="LR6" s="3" t="n">
-        <x:v>31682</x:v>
+        <x:v>31739</x:v>
       </x:c>
       <x:c r="LS6" s="3" t="n">
-        <x:v>31207</x:v>
+        <x:v>31171</x:v>
       </x:c>
       <x:c r="LT6" s="3" t="n">
-        <x:v>32909</x:v>
+        <x:v>32892</x:v>
       </x:c>
       <x:c r="LU6" s="3" t="n">
-        <x:v>32666</x:v>
+        <x:v>32680</x:v>
       </x:c>
       <x:c r="LV6" s="3" t="n">
-        <x:v>32015</x:v>
+        <x:v>32014</x:v>
       </x:c>
       <x:c r="LW6" s="3" t="n">
-        <x:v>34244</x:v>
+        <x:v>34216</x:v>
       </x:c>
       <x:c r="LX6" s="3" t="n">
-        <x:v>30879</x:v>
+        <x:v>30893</x:v>
       </x:c>
       <x:c r="LY6" s="3" t="n">
-        <x:v>31100</x:v>
+        <x:v>31103</x:v>
       </x:c>
       <x:c r="LZ6" s="3" t="n">
-        <x:v>32620</x:v>
+        <x:v>32659</x:v>
       </x:c>
       <x:c r="MA6" s="3" t="n">
-        <x:v>32438</x:v>
+        <x:v>32414</x:v>
       </x:c>
       <x:c r="MB6" s="3" t="n">
-        <x:v>33045</x:v>
+        <x:v>33043</x:v>
       </x:c>
       <x:c r="MC6" s="3" t="n">
-        <x:v>33970</x:v>
+        <x:v>33918</x:v>
       </x:c>
       <x:c r="MD6" s="3" t="n">
-        <x:v>35060</x:v>
+        <x:v>35157</x:v>
       </x:c>
       <x:c r="ME6" s="3" t="n">
-        <x:v>34964</x:v>
+        <x:v>34948</x:v>
       </x:c>
       <x:c r="MF6" s="3" t="n">
-        <x:v>34918</x:v>
+        <x:v>34891</x:v>
       </x:c>
       <x:c r="MG6" s="3" t="n">
-        <x:v>35971</x:v>
+        <x:v>35975</x:v>
       </x:c>
       <x:c r="MH6" s="3" t="n">
-        <x:v>35247</x:v>
+        <x:v>35199</x:v>
       </x:c>
       <x:c r="MI6" s="3" t="n">
-        <x:v>35015</x:v>
+        <x:v>35042</x:v>
       </x:c>
       <x:c r="MJ6" s="3" t="n">
-        <x:v>35800</x:v>
+        <x:v>35768</x:v>
       </x:c>
       <x:c r="MK6" s="3" t="n">
-        <x:v>36182</x:v>
+        <x:v>36180</x:v>
       </x:c>
       <x:c r="ML6" s="3" t="n">
-        <x:v>36225</x:v>
+        <x:v>36295</x:v>
       </x:c>
       <x:c r="MM6" s="3" t="n">
-        <x:v>36582</x:v>
+        <x:v>36627</x:v>
       </x:c>
       <x:c r="MN6" s="3" t="n">
-        <x:v>37106</x:v>
+        <x:v>37107</x:v>
       </x:c>
       <x:c r="MO6" s="3" t="n">
-        <x:v>37303</x:v>
+        <x:v>37234</x:v>
       </x:c>
       <x:c r="MP6" s="3" t="n">
-        <x:v>36913</x:v>
+        <x:v>37018</x:v>
       </x:c>
       <x:c r="MQ6" s="3" t="n">
-        <x:v>37990</x:v>
+        <x:v>37895</x:v>
       </x:c>
       <x:c r="MR6" s="3" t="n">
-        <x:v>38704</x:v>
+        <x:v>38726</x:v>
       </x:c>
       <x:c r="MS6" s="3" t="n">
-        <x:v>37536</x:v>
+        <x:v>37477</x:v>
       </x:c>
       <x:c r="MT6" s="3" t="n">
-        <x:v>41184</x:v>
+        <x:v>41168</x:v>
       </x:c>
       <x:c r="MU6" s="3" t="n">
-        <x:v>38204</x:v>
+        <x:v>38183</x:v>
       </x:c>
       <x:c r="MV6" s="3" t="n">
-        <x:v>39731</x:v>
+        <x:v>39761</x:v>
       </x:c>
       <x:c r="MW6" s="3" t="n">
-        <x:v>39455</x:v>
+        <x:v>39451</x:v>
       </x:c>
       <x:c r="MX6" s="3" t="n">
-        <x:v>37638</x:v>
+        <x:v>37713</x:v>
       </x:c>
       <x:c r="MY6" s="3" t="n">
-        <x:v>41943</x:v>
+        <x:v>41972</x:v>
       </x:c>
       <x:c r="MZ6" s="3" t="n">
-        <x:v>38692</x:v>
+        <x:v>38765</x:v>
       </x:c>
       <x:c r="NA6" s="3" t="n">
-        <x:v>37657</x:v>
+        <x:v>37450</x:v>
       </x:c>
       <x:c r="NB6" s="3" t="n">
-        <x:v>40800</x:v>
+        <x:v>41066</x:v>
       </x:c>
       <x:c r="NC6" s="3" t="n">
-        <x:v>41763</x:v>
+        <x:v>41645</x:v>
       </x:c>
       <x:c r="ND6" s="3" t="n">
-        <x:v>37891</x:v>
+        <x:v>37840</x:v>
       </x:c>
       <x:c r="NE6" s="3" t="n">
-        <x:v>38821</x:v>
+        <x:v>38786</x:v>
       </x:c>
       <x:c r="NF6" s="3" t="n">
-        <x:v>38970</x:v>
+        <x:v>38944</x:v>
       </x:c>
       <x:c r="NG6" s="3" t="n">
-        <x:v>38893</x:v>
+        <x:v>38858</x:v>
       </x:c>
       <x:c r="NH6" s="3" t="n">
-        <x:v>38420</x:v>
+        <x:v>38409</x:v>
       </x:c>
       <x:c r="NI6" s="3" t="n">
-        <x:v>40354</x:v>
+        <x:v>40425</x:v>
       </x:c>
       <x:c r="NJ6" s="3" t="n">
-        <x:v>39462</x:v>
+        <x:v>39499</x:v>
       </x:c>
       <x:c r="NK6" s="3" t="n">
-        <x:v>40080</x:v>
+        <x:v>40177</x:v>
       </x:c>
       <x:c r="NL6" s="3" t="n">
-        <x:v>38311</x:v>
+        <x:v>38513</x:v>
       </x:c>
       <x:c r="NM6" s="3" t="n">
-        <x:v>37427</x:v>
+        <x:v>37003</x:v>
       </x:c>
       <x:c r="NN6" s="3" t="n">
-        <x:v>36216</x:v>
+        <x:v>36568</x:v>
       </x:c>
       <x:c r="NO6" s="3" t="n">
-        <x:v>34608</x:v>
+        <x:v>34414</x:v>
       </x:c>
       <x:c r="NP6" s="3" t="n">
-        <x:v>34900</x:v>
+        <x:v>34805</x:v>
       </x:c>
       <x:c r="NQ6" s="3" t="n">
-        <x:v>34803</x:v>
+        <x:v>34741</x:v>
       </x:c>
       <x:c r="NR6" s="3" t="n">
-        <x:v>36415</x:v>
+        <x:v>36360</x:v>
       </x:c>
       <x:c r="NS6" s="3" t="n">
-        <x:v>36694</x:v>
+        <x:v>36683</x:v>
       </x:c>
       <x:c r="NT6" s="3" t="n">
-        <x:v>37027</x:v>
+        <x:v>37068</x:v>
       </x:c>
       <x:c r="NU6" s="3" t="n">
-        <x:v>36575</x:v>
+        <x:v>36566</x:v>
       </x:c>
       <x:c r="NV6" s="3" t="n">
-        <x:v>38342</x:v>
+        <x:v>38368</x:v>
       </x:c>
       <x:c r="NW6" s="3" t="n">
-        <x:v>37174</x:v>
+        <x:v>37314</x:v>
       </x:c>
       <x:c r="NX6" s="3" t="n">
-        <x:v>39039</x:v>
+        <x:v>39360</x:v>
       </x:c>
       <x:c r="NY6" s="3" t="n">
-        <x:v>44292</x:v>
+        <x:v>43806</x:v>
       </x:c>
       <x:c r="NZ6" s="3" t="n">
-        <x:v>41068</x:v>
+        <x:v>41589</x:v>
       </x:c>
       <x:c r="OA6" s="3" t="n">
-        <x:v>44423</x:v>
+        <x:v>44088</x:v>
       </x:c>
       <x:c r="OB6" s="3" t="n">
-        <x:v>45375</x:v>
+        <x:v>45265</x:v>
       </x:c>
       <x:c r="OC6" s="3" t="n">
-        <x:v>46521</x:v>
+        <x:v>46399</x:v>
       </x:c>
       <x:c r="OD6" s="3" t="n">
-        <x:v>46702</x:v>
+        <x:v>46599</x:v>
       </x:c>
       <x:c r="OE6" s="3" t="n">
-        <x:v>48031</x:v>
+        <x:v>48080</x:v>
       </x:c>
       <x:c r="OF6" s="3" t="n">
-        <x:v>48957</x:v>
+        <x:v>49108</x:v>
       </x:c>
       <x:c r="OG6" s="3" t="n">
-        <x:v>47952</x:v>
+        <x:v>48391</x:v>
       </x:c>
       <x:c r="OH6" s="3" t="n">
-        <x:v>49697</x:v>
+        <x:v>50575</x:v>
       </x:c>
       <x:c r="OI6" s="3" t="n">
-        <x:v>49171</x:v>
+        <x:v>50266</x:v>
       </x:c>
       <x:c r="OJ6" s="3" t="n">
-        <x:v>52337</x:v>
+        <x:v>53081</x:v>
+      </x:c>
+      <x:c r="OK6" s="3" t="n">
+        <x:v>54610</x:v>
+      </x:c>
+      <x:c r="OL6" s="3" t="n">
+        <x:v>53544</x:v>
+      </x:c>
+      <x:c r="OM6" s="3" t="n">
+        <x:v>59310</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:400">
+    <x:row r="7" spans="1:403">
       <x:c r="A7" s="2" t="s">
+        <x:v>406</x:v>
+      </x:c>
+      <x:c r="B7" s="2" t="s">
         <x:v>403</x:v>
-      </x:c>
-      <x:c r="B7" s="2" t="s">
-        <x:v>400</x:v>
       </x:c>
       <x:c r="C7" s="3" t="n">
         <x:v>4236</x:v>
@@ -7222,13 +7267,13 @@
         <x:v>30933</x:v>
       </x:c>
       <x:c r="HZ7" s="3" t="n">
-        <x:v>33029</x:v>
+        <x:v>33028</x:v>
       </x:c>
       <x:c r="IA7" s="3" t="n">
         <x:v>34998</x:v>
       </x:c>
       <x:c r="IB7" s="3" t="n">
-        <x:v>36623</x:v>
+        <x:v>36622</x:v>
       </x:c>
       <x:c r="IC7" s="3" t="n">
         <x:v>31298</x:v>
@@ -7264,7 +7309,7 @@
         <x:v>18787</x:v>
       </x:c>
       <x:c r="IN7" s="3" t="n">
-        <x:v>19164</x:v>
+        <x:v>19163</x:v>
       </x:c>
       <x:c r="IO7" s="3" t="n">
         <x:v>21905</x:v>
@@ -7276,7 +7321,7 @@
         <x:v>20863</x:v>
       </x:c>
       <x:c r="IR7" s="3" t="n">
-        <x:v>23750</x:v>
+        <x:v>23751</x:v>
       </x:c>
       <x:c r="IS7" s="3" t="n">
         <x:v>23988</x:v>
@@ -7294,121 +7339,121 @@
         <x:v>23365</x:v>
       </x:c>
       <x:c r="IX7" s="3" t="n">
-        <x:v>24509</x:v>
+        <x:v>24510</x:v>
       </x:c>
       <x:c r="IY7" s="3" t="n">
         <x:v>19918</x:v>
       </x:c>
       <x:c r="IZ7" s="3" t="n">
-        <x:v>24859</x:v>
+        <x:v>24858</x:v>
       </x:c>
       <x:c r="JA7" s="3" t="n">
         <x:v>21299</x:v>
       </x:c>
       <x:c r="JB7" s="3" t="n">
-        <x:v>19753</x:v>
+        <x:v>19752</x:v>
       </x:c>
       <x:c r="JC7" s="3" t="n">
-        <x:v>25215</x:v>
+        <x:v>25214</x:v>
       </x:c>
       <x:c r="JD7" s="3" t="n">
-        <x:v>22842</x:v>
+        <x:v>22844</x:v>
       </x:c>
       <x:c r="JE7" s="3" t="n">
-        <x:v>24688</x:v>
+        <x:v>24687</x:v>
       </x:c>
       <x:c r="JF7" s="3" t="n">
         <x:v>28451</x:v>
       </x:c>
       <x:c r="JG7" s="3" t="n">
-        <x:v>29303</x:v>
+        <x:v>29306</x:v>
       </x:c>
       <x:c r="JH7" s="3" t="n">
         <x:v>24715</x:v>
       </x:c>
       <x:c r="JI7" s="3" t="n">
-        <x:v>27111</x:v>
+        <x:v>27110</x:v>
       </x:c>
       <x:c r="JJ7" s="3" t="n">
-        <x:v>30568</x:v>
+        <x:v>30569</x:v>
       </x:c>
       <x:c r="JK7" s="3" t="n">
-        <x:v>24572</x:v>
+        <x:v>24571</x:v>
       </x:c>
       <x:c r="JL7" s="3" t="n">
-        <x:v>25258</x:v>
+        <x:v>25256</x:v>
       </x:c>
       <x:c r="JM7" s="3" t="n">
-        <x:v>27148</x:v>
+        <x:v>27147</x:v>
       </x:c>
       <x:c r="JN7" s="3" t="n">
-        <x:v>24955</x:v>
+        <x:v>24954</x:v>
       </x:c>
       <x:c r="JO7" s="3" t="n">
-        <x:v>28547</x:v>
+        <x:v>28546</x:v>
       </x:c>
       <x:c r="JP7" s="3" t="n">
-        <x:v>23496</x:v>
+        <x:v>23499</x:v>
       </x:c>
       <x:c r="JQ7" s="3" t="n">
-        <x:v>27141</x:v>
+        <x:v>27140</x:v>
       </x:c>
       <x:c r="JR7" s="3" t="n">
-        <x:v>28403</x:v>
+        <x:v>28402</x:v>
       </x:c>
       <x:c r="JS7" s="3" t="n">
-        <x:v>26966</x:v>
+        <x:v>26971</x:v>
       </x:c>
       <x:c r="JT7" s="3" t="n">
-        <x:v>30574</x:v>
+        <x:v>30573</x:v>
       </x:c>
       <x:c r="JU7" s="3" t="n">
-        <x:v>28862</x:v>
+        <x:v>28861</x:v>
       </x:c>
       <x:c r="JV7" s="3" t="n">
-        <x:v>25352</x:v>
+        <x:v>25353</x:v>
       </x:c>
       <x:c r="JW7" s="3" t="n">
-        <x:v>29063</x:v>
+        <x:v>29062</x:v>
       </x:c>
       <x:c r="JX7" s="3" t="n">
-        <x:v>23325</x:v>
+        <x:v>23322</x:v>
       </x:c>
       <x:c r="JY7" s="3" t="n">
-        <x:v>22555</x:v>
+        <x:v>22553</x:v>
       </x:c>
       <x:c r="JZ7" s="3" t="n">
-        <x:v>26071</x:v>
+        <x:v>26069</x:v>
       </x:c>
       <x:c r="KA7" s="3" t="n">
-        <x:v>21515</x:v>
+        <x:v>21514</x:v>
       </x:c>
       <x:c r="KB7" s="3" t="n">
-        <x:v>27451</x:v>
+        <x:v>27456</x:v>
       </x:c>
       <x:c r="KC7" s="3" t="n">
-        <x:v>22409</x:v>
+        <x:v>22408</x:v>
       </x:c>
       <x:c r="KD7" s="3" t="n">
-        <x:v>22185</x:v>
+        <x:v>22184</x:v>
       </x:c>
       <x:c r="KE7" s="3" t="n">
-        <x:v>20619</x:v>
+        <x:v>20626</x:v>
       </x:c>
       <x:c r="KF7" s="3" t="n">
-        <x:v>24101</x:v>
+        <x:v>24100</x:v>
       </x:c>
       <x:c r="KG7" s="3" t="n">
-        <x:v>23269</x:v>
+        <x:v>23267</x:v>
       </x:c>
       <x:c r="KH7" s="3" t="n">
         <x:v>19303</x:v>
       </x:c>
       <x:c r="KI7" s="3" t="n">
-        <x:v>23834</x:v>
+        <x:v>23833</x:v>
       </x:c>
       <x:c r="KJ7" s="3" t="n">
-        <x:v>24661</x:v>
+        <x:v>24656</x:v>
       </x:c>
       <x:c r="KK7" s="3" t="n">
         <x:v>26831</x:v>
@@ -7420,315 +7465,324 @@
         <x:v>23305</x:v>
       </x:c>
       <x:c r="KN7" s="3" t="n">
-        <x:v>22338</x:v>
+        <x:v>22342</x:v>
       </x:c>
       <x:c r="KO7" s="3" t="n">
-        <x:v>27936</x:v>
+        <x:v>27933</x:v>
       </x:c>
       <x:c r="KP7" s="3" t="n">
-        <x:v>26580</x:v>
+        <x:v>26576</x:v>
       </x:c>
       <x:c r="KQ7" s="3" t="n">
-        <x:v>29841</x:v>
+        <x:v>29849</x:v>
       </x:c>
       <x:c r="KR7" s="3" t="n">
-        <x:v>23951</x:v>
+        <x:v>23947</x:v>
       </x:c>
       <x:c r="KS7" s="3" t="n">
-        <x:v>24538</x:v>
+        <x:v>24535</x:v>
       </x:c>
       <x:c r="KT7" s="3" t="n">
-        <x:v>25363</x:v>
+        <x:v>25365</x:v>
       </x:c>
       <x:c r="KU7" s="3" t="n">
-        <x:v>21742</x:v>
+        <x:v>21744</x:v>
       </x:c>
       <x:c r="KV7" s="3" t="n">
-        <x:v>23096</x:v>
+        <x:v>23095</x:v>
       </x:c>
       <x:c r="KW7" s="3" t="n">
-        <x:v>23633</x:v>
+        <x:v>23636</x:v>
       </x:c>
       <x:c r="KX7" s="3" t="n">
-        <x:v>22889</x:v>
+        <x:v>22894</x:v>
       </x:c>
       <x:c r="KY7" s="3" t="n">
-        <x:v>27044</x:v>
+        <x:v>27046</x:v>
       </x:c>
       <x:c r="KZ7" s="3" t="n">
-        <x:v>23780</x:v>
+        <x:v>23783</x:v>
       </x:c>
       <x:c r="LA7" s="3" t="n">
-        <x:v>18516</x:v>
+        <x:v>18510</x:v>
       </x:c>
       <x:c r="LB7" s="3" t="n">
-        <x:v>18349</x:v>
+        <x:v>18340</x:v>
       </x:c>
       <x:c r="LC7" s="3" t="n">
-        <x:v>14284</x:v>
+        <x:v>14283</x:v>
       </x:c>
       <x:c r="LD7" s="3" t="n">
-        <x:v>17162</x:v>
+        <x:v>17156</x:v>
       </x:c>
       <x:c r="LE7" s="3" t="n">
-        <x:v>18208</x:v>
+        <x:v>18205</x:v>
       </x:c>
       <x:c r="LF7" s="3" t="n">
-        <x:v>17980</x:v>
+        <x:v>17983</x:v>
       </x:c>
       <x:c r="LG7" s="3" t="n">
-        <x:v>18062</x:v>
+        <x:v>18069</x:v>
       </x:c>
       <x:c r="LH7" s="3" t="n">
-        <x:v>21076</x:v>
+        <x:v>21087</x:v>
       </x:c>
       <x:c r="LI7" s="3" t="n">
-        <x:v>16087</x:v>
+        <x:v>16097</x:v>
       </x:c>
       <x:c r="LJ7" s="3" t="n">
-        <x:v>15235</x:v>
+        <x:v>15245</x:v>
       </x:c>
       <x:c r="LK7" s="3" t="n">
-        <x:v>16154</x:v>
+        <x:v>16161</x:v>
       </x:c>
       <x:c r="LL7" s="3" t="n">
-        <x:v>17349</x:v>
+        <x:v>17350</x:v>
       </x:c>
       <x:c r="LM7" s="3" t="n">
-        <x:v>14053</x:v>
+        <x:v>14043</x:v>
       </x:c>
       <x:c r="LN7" s="3" t="n">
-        <x:v>11827</x:v>
+        <x:v>11793</x:v>
       </x:c>
       <x:c r="LO7" s="3" t="n">
-        <x:v>11736</x:v>
+        <x:v>11735</x:v>
       </x:c>
       <x:c r="LP7" s="3" t="n">
-        <x:v>13001</x:v>
+        <x:v>12996</x:v>
       </x:c>
       <x:c r="LQ7" s="3" t="n">
-        <x:v>12257</x:v>
+        <x:v>12255</x:v>
       </x:c>
       <x:c r="LR7" s="3" t="n">
         <x:v>14143</x:v>
       </x:c>
       <x:c r="LS7" s="3" t="n">
-        <x:v>15281</x:v>
+        <x:v>15283</x:v>
       </x:c>
       <x:c r="LT7" s="3" t="n">
-        <x:v>14538</x:v>
+        <x:v>14612</x:v>
       </x:c>
       <x:c r="LU7" s="3" t="n">
-        <x:v>17133</x:v>
+        <x:v>17139</x:v>
       </x:c>
       <x:c r="LV7" s="3" t="n">
-        <x:v>17223</x:v>
+        <x:v>17232</x:v>
       </x:c>
       <x:c r="LW7" s="3" t="n">
-        <x:v>15148</x:v>
+        <x:v>15154</x:v>
       </x:c>
       <x:c r="LX7" s="3" t="n">
-        <x:v>17838</x:v>
+        <x:v>17835</x:v>
       </x:c>
       <x:c r="LY7" s="3" t="n">
-        <x:v>18810</x:v>
+        <x:v>18783</x:v>
       </x:c>
       <x:c r="LZ7" s="3" t="n">
-        <x:v>19931</x:v>
+        <x:v>19803</x:v>
       </x:c>
       <x:c r="MA7" s="3" t="n">
-        <x:v>20886</x:v>
+        <x:v>20884</x:v>
       </x:c>
       <x:c r="MB7" s="3" t="n">
-        <x:v>20190</x:v>
+        <x:v>20232</x:v>
       </x:c>
       <x:c r="MC7" s="3" t="n">
-        <x:v>18043</x:v>
+        <x:v>18009</x:v>
       </x:c>
       <x:c r="MD7" s="3" t="n">
-        <x:v>18613</x:v>
+        <x:v>18633</x:v>
       </x:c>
       <x:c r="ME7" s="3" t="n">
-        <x:v>18567</x:v>
+        <x:v>18563</x:v>
       </x:c>
       <x:c r="MF7" s="3" t="n">
-        <x:v>18418</x:v>
+        <x:v>18591</x:v>
       </x:c>
       <x:c r="MG7" s="3" t="n">
-        <x:v>15265</x:v>
+        <x:v>15271</x:v>
       </x:c>
       <x:c r="MH7" s="3" t="n">
-        <x:v>18022</x:v>
+        <x:v>18028</x:v>
       </x:c>
       <x:c r="MI7" s="3" t="n">
-        <x:v>18059</x:v>
+        <x:v>18046</x:v>
       </x:c>
       <x:c r="MJ7" s="3" t="n">
-        <x:v>17360</x:v>
+        <x:v>17369</x:v>
       </x:c>
       <x:c r="MK7" s="3" t="n">
-        <x:v>18686</x:v>
+        <x:v>18649</x:v>
       </x:c>
       <x:c r="ML7" s="3" t="n">
-        <x:v>20624</x:v>
+        <x:v>20391</x:v>
       </x:c>
       <x:c r="MM7" s="3" t="n">
-        <x:v>20330</x:v>
+        <x:v>20348</x:v>
       </x:c>
       <x:c r="MN7" s="3" t="n">
-        <x:v>19728</x:v>
+        <x:v>19829</x:v>
       </x:c>
       <x:c r="MO7" s="3" t="n">
-        <x:v>22345</x:v>
+        <x:v>22278</x:v>
       </x:c>
       <x:c r="MP7" s="3" t="n">
-        <x:v>21509</x:v>
+        <x:v>21568</x:v>
       </x:c>
       <x:c r="MQ7" s="3" t="n">
-        <x:v>22234</x:v>
+        <x:v>22206</x:v>
       </x:c>
       <x:c r="MR7" s="3" t="n">
-        <x:v>23076</x:v>
+        <x:v>23409</x:v>
       </x:c>
       <x:c r="MS7" s="3" t="n">
-        <x:v>23829</x:v>
+        <x:v>23852</x:v>
       </x:c>
       <x:c r="MT7" s="3" t="n">
-        <x:v>22729</x:v>
+        <x:v>22637</x:v>
       </x:c>
       <x:c r="MU7" s="3" t="n">
-        <x:v>25670</x:v>
+        <x:v>25564</x:v>
       </x:c>
       <x:c r="MV7" s="3" t="n">
-        <x:v>27836</x:v>
+        <x:v>27829</x:v>
       </x:c>
       <x:c r="MW7" s="3" t="n">
-        <x:v>17518</x:v>
+        <x:v>17468</x:v>
       </x:c>
       <x:c r="MX7" s="3" t="n">
-        <x:v>15522</x:v>
+        <x:v>15305</x:v>
       </x:c>
       <x:c r="MY7" s="3" t="n">
-        <x:v>18956</x:v>
+        <x:v>19068</x:v>
       </x:c>
       <x:c r="MZ7" s="3" t="n">
-        <x:v>18387</x:v>
+        <x:v>18745</x:v>
       </x:c>
       <x:c r="NA7" s="3" t="n">
-        <x:v>20725</x:v>
+        <x:v>20442</x:v>
       </x:c>
       <x:c r="NB7" s="3" t="n">
-        <x:v>21138</x:v>
+        <x:v>21384</x:v>
       </x:c>
       <x:c r="NC7" s="3" t="n">
-        <x:v>21013</x:v>
+        <x:v>20837</x:v>
       </x:c>
       <x:c r="ND7" s="3" t="n">
-        <x:v>15138</x:v>
+        <x:v>15375</x:v>
       </x:c>
       <x:c r="NE7" s="3" t="n">
-        <x:v>19442</x:v>
+        <x:v>19479</x:v>
       </x:c>
       <x:c r="NF7" s="3" t="n">
-        <x:v>18766</x:v>
+        <x:v>18597</x:v>
       </x:c>
       <x:c r="NG7" s="3" t="n">
-        <x:v>21087</x:v>
+        <x:v>20922</x:v>
       </x:c>
       <x:c r="NH7" s="3" t="n">
-        <x:v>20239</x:v>
+        <x:v>20221</x:v>
       </x:c>
       <x:c r="NI7" s="3" t="n">
-        <x:v>27368</x:v>
+        <x:v>27278</x:v>
       </x:c>
       <x:c r="NJ7" s="3" t="n">
-        <x:v>26374</x:v>
+        <x:v>25935</x:v>
       </x:c>
       <x:c r="NK7" s="3" t="n">
-        <x:v>20763</x:v>
+        <x:v>21022</x:v>
       </x:c>
       <x:c r="NL7" s="3" t="n">
-        <x:v>25416</x:v>
+        <x:v>26311</x:v>
       </x:c>
       <x:c r="NM7" s="3" t="n">
-        <x:v>12149</x:v>
+        <x:v>11849</x:v>
       </x:c>
       <x:c r="NN7" s="3" t="n">
-        <x:v>10238</x:v>
+        <x:v>10463</x:v>
       </x:c>
       <x:c r="NO7" s="3" t="n">
-        <x:v>14080</x:v>
+        <x:v>13839</x:v>
       </x:c>
       <x:c r="NP7" s="3" t="n">
-        <x:v>16661</x:v>
+        <x:v>16954</x:v>
       </x:c>
       <x:c r="NQ7" s="3" t="n">
-        <x:v>20118</x:v>
+        <x:v>20159</x:v>
       </x:c>
       <x:c r="NR7" s="3" t="n">
-        <x:v>17645</x:v>
+        <x:v>17372</x:v>
       </x:c>
       <x:c r="NS7" s="3" t="n">
-        <x:v>15086</x:v>
+        <x:v>14909</x:v>
       </x:c>
       <x:c r="NT7" s="3" t="n">
-        <x:v>18890</x:v>
+        <x:v>18832</x:v>
       </x:c>
       <x:c r="NU7" s="3" t="n">
-        <x:v>17801</x:v>
+        <x:v>17989</x:v>
       </x:c>
       <x:c r="NV7" s="3" t="n">
-        <x:v>18262</x:v>
+        <x:v>18704</x:v>
       </x:c>
       <x:c r="NW7" s="3" t="n">
-        <x:v>22349</x:v>
+        <x:v>22757</x:v>
       </x:c>
       <x:c r="NX7" s="3" t="n">
-        <x:v>23941</x:v>
+        <x:v>25197</x:v>
       </x:c>
       <x:c r="NY7" s="3" t="n">
-        <x:v>25235</x:v>
+        <x:v>24298</x:v>
       </x:c>
       <x:c r="NZ7" s="3" t="n">
-        <x:v>26036</x:v>
+        <x:v>27039</x:v>
       </x:c>
       <x:c r="OA7" s="3" t="n">
-        <x:v>29515</x:v>
+        <x:v>29472</x:v>
       </x:c>
       <x:c r="OB7" s="3" t="n">
-        <x:v>29540</x:v>
+        <x:v>30229</x:v>
       </x:c>
       <x:c r="OC7" s="3" t="n">
-        <x:v>32720</x:v>
+        <x:v>33031</x:v>
       </x:c>
       <x:c r="OD7" s="3" t="n">
-        <x:v>32191</x:v>
+        <x:v>34114</x:v>
       </x:c>
       <x:c r="OE7" s="3" t="n">
-        <x:v>32826</x:v>
+        <x:v>33605</x:v>
       </x:c>
       <x:c r="OF7" s="3" t="n">
-        <x:v>32342</x:v>
+        <x:v>32677</x:v>
       </x:c>
       <x:c r="OG7" s="3" t="n">
-        <x:v>32260</x:v>
+        <x:v>31642</x:v>
       </x:c>
       <x:c r="OH7" s="3" t="n">
-        <x:v>31246</x:v>
+        <x:v>30640</x:v>
       </x:c>
       <x:c r="OI7" s="3" t="n">
-        <x:v>32015</x:v>
+        <x:v>32648</x:v>
       </x:c>
       <x:c r="OJ7" s="3" t="n">
-        <x:v>35239</x:v>
+        <x:v>37288</x:v>
+      </x:c>
+      <x:c r="OK7" s="3" t="n">
+        <x:v>48094</x:v>
+      </x:c>
+      <x:c r="OL7" s="3" t="n">
+        <x:v>45744</x:v>
+      </x:c>
+      <x:c r="OM7" s="3" t="n">
+        <x:v>57898</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:400">
+    <x:row r="8" spans="1:403">
       <x:c r="A8" s="2" t="s">
-        <x:v>404</x:v>
+        <x:v>407</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>400</x:v>
+        <x:v>403</x:v>
       </x:c>
       <x:c r="C8" s="3" t="n">
         <x:v>1154</x:v>
@@ -8328,7 +8382,7 @@
         <x:v>8147</x:v>
       </x:c>
       <x:c r="GT8" s="3" t="n">
-        <x:v>8958</x:v>
+        <x:v>8957</x:v>
       </x:c>
       <x:c r="GU8" s="3" t="n">
         <x:v>9360</x:v>
@@ -8367,10 +8421,10 @@
         <x:v>14105</x:v>
       </x:c>
       <x:c r="HG8" s="3" t="n">
-        <x:v>12533</x:v>
+        <x:v>12532</x:v>
       </x:c>
       <x:c r="HH8" s="3" t="n">
-        <x:v>10709</x:v>
+        <x:v>10708</x:v>
       </x:c>
       <x:c r="HI8" s="3" t="n">
         <x:v>12541</x:v>
@@ -8385,10 +8439,10 @@
         <x:v>9982</x:v>
       </x:c>
       <x:c r="HM8" s="3" t="n">
-        <x:v>9859</x:v>
+        <x:v>9860</x:v>
       </x:c>
       <x:c r="HN8" s="3" t="n">
-        <x:v>12209</x:v>
+        <x:v>12210</x:v>
       </x:c>
       <x:c r="HO8" s="3" t="n">
         <x:v>10172</x:v>
@@ -8400,16 +8454,16 @@
         <x:v>10803</x:v>
       </x:c>
       <x:c r="HR8" s="3" t="n">
-        <x:v>11369</x:v>
+        <x:v>11368</x:v>
       </x:c>
       <x:c r="HS8" s="3" t="n">
-        <x:v>11912</x:v>
+        <x:v>11911</x:v>
       </x:c>
       <x:c r="HT8" s="3" t="n">
-        <x:v>12316</x:v>
+        <x:v>12315</x:v>
       </x:c>
       <x:c r="HU8" s="3" t="n">
-        <x:v>12442</x:v>
+        <x:v>12441</x:v>
       </x:c>
       <x:c r="HV8" s="3" t="n">
         <x:v>12574</x:v>
@@ -8424,13 +8478,13 @@
         <x:v>15283</x:v>
       </x:c>
       <x:c r="HZ8" s="3" t="n">
-        <x:v>18009</x:v>
+        <x:v>18011</x:v>
       </x:c>
       <x:c r="IA8" s="3" t="n">
-        <x:v>17758</x:v>
+        <x:v>17759</x:v>
       </x:c>
       <x:c r="IB8" s="3" t="n">
-        <x:v>18442</x:v>
+        <x:v>18443</x:v>
       </x:c>
       <x:c r="IC8" s="3" t="n">
         <x:v>18284</x:v>
@@ -8439,13 +8493,13 @@
         <x:v>14581</x:v>
       </x:c>
       <x:c r="IE8" s="3" t="n">
-        <x:v>16203</x:v>
+        <x:v>16201</x:v>
       </x:c>
       <x:c r="IF8" s="3" t="n">
-        <x:v>22209</x:v>
+        <x:v>22205</x:v>
       </x:c>
       <x:c r="IG8" s="3" t="n">
-        <x:v>21456</x:v>
+        <x:v>21455</x:v>
       </x:c>
       <x:c r="IH8" s="3" t="n">
         <x:v>22199</x:v>
@@ -8454,16 +8508,16 @@
         <x:v>19214</x:v>
       </x:c>
       <x:c r="IJ8" s="3" t="n">
-        <x:v>19456</x:v>
+        <x:v>19457</x:v>
       </x:c>
       <x:c r="IK8" s="3" t="n">
-        <x:v>18858</x:v>
+        <x:v>18860</x:v>
       </x:c>
       <x:c r="IL8" s="3" t="n">
-        <x:v>13511</x:v>
+        <x:v>13513</x:v>
       </x:c>
       <x:c r="IM8" s="3" t="n">
-        <x:v>12530</x:v>
+        <x:v>12531</x:v>
       </x:c>
       <x:c r="IN8" s="3" t="n">
         <x:v>12660</x:v>
@@ -8472,28 +8526,28 @@
         <x:v>12169</x:v>
       </x:c>
       <x:c r="IP8" s="3" t="n">
-        <x:v>11729</x:v>
+        <x:v>11730</x:v>
       </x:c>
       <x:c r="IQ8" s="3" t="n">
-        <x:v>11873</x:v>
+        <x:v>11869</x:v>
       </x:c>
       <x:c r="IR8" s="3" t="n">
-        <x:v>9479</x:v>
+        <x:v>9477</x:v>
       </x:c>
       <x:c r="IS8" s="3" t="n">
-        <x:v>10140</x:v>
+        <x:v>10139</x:v>
       </x:c>
       <x:c r="IT8" s="3" t="n">
-        <x:v>10589</x:v>
+        <x:v>10588</x:v>
       </x:c>
       <x:c r="IU8" s="3" t="n">
-        <x:v>11908</x:v>
+        <x:v>11907</x:v>
       </x:c>
       <x:c r="IV8" s="3" t="n">
-        <x:v>11929</x:v>
+        <x:v>11928</x:v>
       </x:c>
       <x:c r="IW8" s="3" t="n">
-        <x:v>12452</x:v>
+        <x:v>12463</x:v>
       </x:c>
       <x:c r="IX8" s="3" t="n">
         <x:v>12375</x:v>
@@ -8502,435 +8556,444 @@
         <x:v>14503</x:v>
       </x:c>
       <x:c r="IZ8" s="3" t="n">
-        <x:v>14574</x:v>
+        <x:v>14576</x:v>
       </x:c>
       <x:c r="JA8" s="3" t="n">
-        <x:v>13334</x:v>
+        <x:v>13333</x:v>
       </x:c>
       <x:c r="JB8" s="3" t="n">
-        <x:v>11066</x:v>
+        <x:v>11067</x:v>
       </x:c>
       <x:c r="JC8" s="3" t="n">
-        <x:v>10954</x:v>
+        <x:v>10948</x:v>
       </x:c>
       <x:c r="JD8" s="3" t="n">
-        <x:v>14714</x:v>
+        <x:v>14710</x:v>
       </x:c>
       <x:c r="JE8" s="3" t="n">
-        <x:v>15133</x:v>
+        <x:v>15129</x:v>
       </x:c>
       <x:c r="JF8" s="3" t="n">
-        <x:v>15685</x:v>
+        <x:v>15682</x:v>
       </x:c>
       <x:c r="JG8" s="3" t="n">
-        <x:v>15519</x:v>
+        <x:v>15515</x:v>
       </x:c>
       <x:c r="JH8" s="3" t="n">
-        <x:v>15106</x:v>
+        <x:v>15103</x:v>
       </x:c>
       <x:c r="JI8" s="3" t="n">
-        <x:v>15620</x:v>
+        <x:v>15645</x:v>
       </x:c>
       <x:c r="JJ8" s="3" t="n">
-        <x:v>15713</x:v>
+        <x:v>15711</x:v>
       </x:c>
       <x:c r="JK8" s="3" t="n">
-        <x:v>14297</x:v>
+        <x:v>14296</x:v>
       </x:c>
       <x:c r="JL8" s="3" t="n">
-        <x:v>15100</x:v>
+        <x:v>15105</x:v>
       </x:c>
       <x:c r="JM8" s="3" t="n">
-        <x:v>16694</x:v>
+        <x:v>16688</x:v>
       </x:c>
       <x:c r="JN8" s="3" t="n">
-        <x:v>18696</x:v>
+        <x:v>18698</x:v>
       </x:c>
       <x:c r="JO8" s="3" t="n">
-        <x:v>18676</x:v>
+        <x:v>18664</x:v>
       </x:c>
       <x:c r="JP8" s="3" t="n">
-        <x:v>17163</x:v>
+        <x:v>17154</x:v>
       </x:c>
       <x:c r="JQ8" s="3" t="n">
-        <x:v>19116</x:v>
+        <x:v>19111</x:v>
       </x:c>
       <x:c r="JR8" s="3" t="n">
-        <x:v>18366</x:v>
+        <x:v>18360</x:v>
       </x:c>
       <x:c r="JS8" s="3" t="n">
-        <x:v>20441</x:v>
+        <x:v>20434</x:v>
       </x:c>
       <x:c r="JT8" s="3" t="n">
-        <x:v>21517</x:v>
+        <x:v>21511</x:v>
       </x:c>
       <x:c r="JU8" s="3" t="n">
-        <x:v>20636</x:v>
+        <x:v>20686</x:v>
       </x:c>
       <x:c r="JV8" s="3" t="n">
-        <x:v>21764</x:v>
+        <x:v>21759</x:v>
       </x:c>
       <x:c r="JW8" s="3" t="n">
-        <x:v>22780</x:v>
+        <x:v>22776</x:v>
       </x:c>
       <x:c r="JX8" s="3" t="n">
-        <x:v>22598</x:v>
+        <x:v>22609</x:v>
       </x:c>
       <x:c r="JY8" s="3" t="n">
-        <x:v>22550</x:v>
+        <x:v>22535</x:v>
       </x:c>
       <x:c r="JZ8" s="3" t="n">
-        <x:v>21280</x:v>
+        <x:v>21287</x:v>
       </x:c>
       <x:c r="KA8" s="3" t="n">
-        <x:v>18965</x:v>
+        <x:v>18951</x:v>
       </x:c>
       <x:c r="KB8" s="3" t="n">
-        <x:v>20466</x:v>
+        <x:v>20450</x:v>
       </x:c>
       <x:c r="KC8" s="3" t="n">
-        <x:v>19490</x:v>
+        <x:v>19483</x:v>
       </x:c>
       <x:c r="KD8" s="3" t="n">
-        <x:v>20178</x:v>
+        <x:v>20171</x:v>
       </x:c>
       <x:c r="KE8" s="3" t="n">
-        <x:v>19370</x:v>
+        <x:v>19364</x:v>
       </x:c>
       <x:c r="KF8" s="3" t="n">
-        <x:v>18851</x:v>
+        <x:v>18844</x:v>
       </x:c>
       <x:c r="KG8" s="3" t="n">
-        <x:v>17593</x:v>
+        <x:v>17634</x:v>
       </x:c>
       <x:c r="KH8" s="3" t="n">
-        <x:v>21618</x:v>
+        <x:v>21614</x:v>
       </x:c>
       <x:c r="KI8" s="3" t="n">
-        <x:v>21609</x:v>
+        <x:v>21610</x:v>
       </x:c>
       <x:c r="KJ8" s="3" t="n">
-        <x:v>23253</x:v>
+        <x:v>23271</x:v>
       </x:c>
       <x:c r="KK8" s="3" t="n">
-        <x:v>22282</x:v>
+        <x:v>22272</x:v>
       </x:c>
       <x:c r="KL8" s="3" t="n">
-        <x:v>20565</x:v>
+        <x:v>20587</x:v>
       </x:c>
       <x:c r="KM8" s="3" t="n">
-        <x:v>21459</x:v>
+        <x:v>21445</x:v>
       </x:c>
       <x:c r="KN8" s="3" t="n">
-        <x:v>21555</x:v>
+        <x:v>21505</x:v>
       </x:c>
       <x:c r="KO8" s="3" t="n">
-        <x:v>21332</x:v>
+        <x:v>21331</x:v>
       </x:c>
       <x:c r="KP8" s="3" t="n">
-        <x:v>20660</x:v>
+        <x:v>20656</x:v>
       </x:c>
       <x:c r="KQ8" s="3" t="n">
-        <x:v>20464</x:v>
+        <x:v>20456</x:v>
       </x:c>
       <x:c r="KR8" s="3" t="n">
-        <x:v>19593</x:v>
+        <x:v>19581</x:v>
       </x:c>
       <x:c r="KS8" s="3" t="n">
-        <x:v>20091</x:v>
+        <x:v>20135</x:v>
       </x:c>
       <x:c r="KT8" s="3" t="n">
-        <x:v>18126</x:v>
+        <x:v>18122</x:v>
       </x:c>
       <x:c r="KU8" s="3" t="n">
-        <x:v>18891</x:v>
+        <x:v>18896</x:v>
       </x:c>
       <x:c r="KV8" s="3" t="n">
-        <x:v>16788</x:v>
+        <x:v>16810</x:v>
       </x:c>
       <x:c r="KW8" s="3" t="n">
-        <x:v>15291</x:v>
+        <x:v>15298</x:v>
       </x:c>
       <x:c r="KX8" s="3" t="n">
-        <x:v>16143</x:v>
+        <x:v>16178</x:v>
       </x:c>
       <x:c r="KY8" s="3" t="n">
-        <x:v>17156</x:v>
+        <x:v>17154</x:v>
       </x:c>
       <x:c r="KZ8" s="3" t="n">
-        <x:v>20802</x:v>
+        <x:v>20731</x:v>
       </x:c>
       <x:c r="LA8" s="3" t="n">
-        <x:v>18298</x:v>
+        <x:v>18302</x:v>
       </x:c>
       <x:c r="LB8" s="3" t="n">
-        <x:v>19007</x:v>
+        <x:v>18989</x:v>
       </x:c>
       <x:c r="LC8" s="3" t="n">
-        <x:v>17616</x:v>
+        <x:v>17606</x:v>
       </x:c>
       <x:c r="LD8" s="3" t="n">
-        <x:v>18748</x:v>
+        <x:v>18728</x:v>
       </x:c>
       <x:c r="LE8" s="3" t="n">
-        <x:v>19038</x:v>
+        <x:v>19055</x:v>
       </x:c>
       <x:c r="LF8" s="3" t="n">
-        <x:v>14998</x:v>
+        <x:v>14989</x:v>
       </x:c>
       <x:c r="LG8" s="3" t="n">
-        <x:v>18098</x:v>
+        <x:v>18097</x:v>
       </x:c>
       <x:c r="LH8" s="3" t="n">
-        <x:v>19066</x:v>
+        <x:v>19083</x:v>
       </x:c>
       <x:c r="LI8" s="3" t="n">
-        <x:v>20635</x:v>
+        <x:v>20819</x:v>
       </x:c>
       <x:c r="LJ8" s="3" t="n">
-        <x:v>22093</x:v>
+        <x:v>22137</x:v>
       </x:c>
       <x:c r="LK8" s="3" t="n">
-        <x:v>23069</x:v>
+        <x:v>23062</x:v>
       </x:c>
       <x:c r="LL8" s="3" t="n">
-        <x:v>17568</x:v>
+        <x:v>17480</x:v>
       </x:c>
       <x:c r="LM8" s="3" t="n">
         <x:v>16325</x:v>
       </x:c>
       <x:c r="LN8" s="3" t="n">
-        <x:v>16032</x:v>
+        <x:v>15994</x:v>
       </x:c>
       <x:c r="LO8" s="3" t="n">
-        <x:v>13882</x:v>
+        <x:v>13862</x:v>
       </x:c>
       <x:c r="LP8" s="3" t="n">
-        <x:v>14447</x:v>
+        <x:v>14417</x:v>
       </x:c>
       <x:c r="LQ8" s="3" t="n">
-        <x:v>13763</x:v>
+        <x:v>13753</x:v>
       </x:c>
       <x:c r="LR8" s="3" t="n">
-        <x:v>13848</x:v>
+        <x:v>13835</x:v>
       </x:c>
       <x:c r="LS8" s="3" t="n">
-        <x:v>13675</x:v>
+        <x:v>13677</x:v>
       </x:c>
       <x:c r="LT8" s="3" t="n">
-        <x:v>13011</x:v>
+        <x:v>13026</x:v>
       </x:c>
       <x:c r="LU8" s="3" t="n">
-        <x:v>12290</x:v>
+        <x:v>12522</x:v>
       </x:c>
       <x:c r="LV8" s="3" t="n">
-        <x:v>11807</x:v>
+        <x:v>11843</x:v>
       </x:c>
       <x:c r="LW8" s="3" t="n">
-        <x:v>10133</x:v>
+        <x:v>10111</x:v>
       </x:c>
       <x:c r="LX8" s="3" t="n">
-        <x:v>14562</x:v>
+        <x:v>14504</x:v>
       </x:c>
       <x:c r="LY8" s="3" t="n">
-        <x:v>14161</x:v>
+        <x:v>14170</x:v>
       </x:c>
       <x:c r="LZ8" s="3" t="n">
-        <x:v>13522</x:v>
+        <x:v>13485</x:v>
       </x:c>
       <x:c r="MA8" s="3" t="n">
-        <x:v>16240</x:v>
+        <x:v>16056</x:v>
       </x:c>
       <x:c r="MB8" s="3" t="n">
-        <x:v>15648</x:v>
+        <x:v>15629</x:v>
       </x:c>
       <x:c r="MC8" s="3" t="n">
-        <x:v>15949</x:v>
+        <x:v>15907</x:v>
       </x:c>
       <x:c r="MD8" s="3" t="n">
-        <x:v>17434</x:v>
+        <x:v>17439</x:v>
       </x:c>
       <x:c r="ME8" s="3" t="n">
-        <x:v>17043</x:v>
+        <x:v>17030</x:v>
       </x:c>
       <x:c r="MF8" s="3" t="n">
-        <x:v>17236</x:v>
+        <x:v>17263</x:v>
       </x:c>
       <x:c r="MG8" s="3" t="n">
-        <x:v>17322</x:v>
+        <x:v>18051</x:v>
       </x:c>
       <x:c r="MH8" s="3" t="n">
-        <x:v>18107</x:v>
+        <x:v>18129</x:v>
       </x:c>
       <x:c r="MI8" s="3" t="n">
-        <x:v>17809</x:v>
+        <x:v>17627</x:v>
       </x:c>
       <x:c r="MJ8" s="3" t="n">
-        <x:v>17461</x:v>
+        <x:v>17449</x:v>
       </x:c>
       <x:c r="MK8" s="3" t="n">
-        <x:v>16993</x:v>
+        <x:v>17018</x:v>
       </x:c>
       <x:c r="ML8" s="3" t="n">
-        <x:v>16387</x:v>
+        <x:v>16192</x:v>
       </x:c>
       <x:c r="MM8" s="3" t="n">
-        <x:v>19329</x:v>
+        <x:v>19067</x:v>
       </x:c>
       <x:c r="MN8" s="3" t="n">
-        <x:v>18962</x:v>
+        <x:v>19016</x:v>
       </x:c>
       <x:c r="MO8" s="3" t="n">
-        <x:v>18799</x:v>
+        <x:v>18555</x:v>
       </x:c>
       <x:c r="MP8" s="3" t="n">
-        <x:v>21600</x:v>
+        <x:v>21714</x:v>
       </x:c>
       <x:c r="MQ8" s="3" t="n">
-        <x:v>22112</x:v>
+        <x:v>22108</x:v>
       </x:c>
       <x:c r="MR8" s="3" t="n">
-        <x:v>23879</x:v>
+        <x:v>24111</x:v>
       </x:c>
       <x:c r="MS8" s="3" t="n">
-        <x:v>27031</x:v>
+        <x:v>28680</x:v>
       </x:c>
       <x:c r="MT8" s="3" t="n">
-        <x:v>27152</x:v>
+        <x:v>27167</x:v>
       </x:c>
       <x:c r="MU8" s="3" t="n">
-        <x:v>25405</x:v>
+        <x:v>24859</x:v>
       </x:c>
       <x:c r="MV8" s="3" t="n">
-        <x:v>22714</x:v>
+        <x:v>22785</x:v>
       </x:c>
       <x:c r="MW8" s="3" t="n">
-        <x:v>21210</x:v>
+        <x:v>21236</x:v>
       </x:c>
       <x:c r="MX8" s="3" t="n">
-        <x:v>20843</x:v>
+        <x:v>20413</x:v>
       </x:c>
       <x:c r="MY8" s="3" t="n">
-        <x:v>18934</x:v>
+        <x:v>18675</x:v>
       </x:c>
       <x:c r="MZ8" s="3" t="n">
-        <x:v>19104</x:v>
+        <x:v>19342</x:v>
       </x:c>
       <x:c r="NA8" s="3" t="n">
-        <x:v>19663</x:v>
+        <x:v>19120</x:v>
       </x:c>
       <x:c r="NB8" s="3" t="n">
-        <x:v>16177</x:v>
+        <x:v>16292</x:v>
       </x:c>
       <x:c r="NC8" s="3" t="n">
-        <x:v>17343</x:v>
+        <x:v>17393</x:v>
       </x:c>
       <x:c r="ND8" s="3" t="n">
-        <x:v>18500</x:v>
+        <x:v>18841</x:v>
       </x:c>
       <x:c r="NE8" s="3" t="n">
-        <x:v>12511</x:v>
+        <x:v>13584</x:v>
       </x:c>
       <x:c r="NF8" s="3" t="n">
-        <x:v>11234</x:v>
+        <x:v>11207</x:v>
       </x:c>
       <x:c r="NG8" s="3" t="n">
-        <x:v>8100</x:v>
+        <x:v>7823</x:v>
       </x:c>
       <x:c r="NH8" s="3" t="n">
-        <x:v>11464</x:v>
+        <x:v>11529</x:v>
       </x:c>
       <x:c r="NI8" s="3" t="n">
-        <x:v>11877</x:v>
+        <x:v>11872</x:v>
       </x:c>
       <x:c r="NJ8" s="3" t="n">
-        <x:v>11932</x:v>
+        <x:v>11560</x:v>
       </x:c>
       <x:c r="NK8" s="3" t="n">
-        <x:v>9704</x:v>
+        <x:v>11155</x:v>
       </x:c>
       <x:c r="NL8" s="3" t="n">
-        <x:v>10271</x:v>
+        <x:v>10244</x:v>
       </x:c>
       <x:c r="NM8" s="3" t="n">
-        <x:v>10703</x:v>
+        <x:v>8925</x:v>
       </x:c>
       <x:c r="NN8" s="3" t="n">
-        <x:v>6785</x:v>
+        <x:v>7941</x:v>
       </x:c>
       <x:c r="NO8" s="3" t="n">
-        <x:v>7125</x:v>
+        <x:v>6591</x:v>
       </x:c>
       <x:c r="NP8" s="3" t="n">
-        <x:v>7952</x:v>
+        <x:v>7598</x:v>
       </x:c>
       <x:c r="NQ8" s="3" t="n">
-        <x:v>9035</x:v>
+        <x:v>6996</x:v>
       </x:c>
       <x:c r="NR8" s="3" t="n">
-        <x:v>9038</x:v>
+        <x:v>8715</x:v>
       </x:c>
       <x:c r="NS8" s="3" t="n">
-        <x:v>9366</x:v>
+        <x:v>11771</x:v>
       </x:c>
       <x:c r="NT8" s="3" t="n">
-        <x:v>11137</x:v>
+        <x:v>10404</x:v>
       </x:c>
       <x:c r="NU8" s="3" t="n">
-        <x:v>11792</x:v>
+        <x:v>11297</x:v>
       </x:c>
       <x:c r="NV8" s="3" t="n">
-        <x:v>11497</x:v>
+        <x:v>12334</x:v>
       </x:c>
       <x:c r="NW8" s="3" t="n">
-        <x:v>15411</x:v>
+        <x:v>16250</x:v>
       </x:c>
       <x:c r="NX8" s="3" t="n">
-        <x:v>15667</x:v>
+        <x:v>15406</x:v>
       </x:c>
       <x:c r="NY8" s="3" t="n">
-        <x:v>16310</x:v>
+        <x:v>15291</x:v>
       </x:c>
       <x:c r="NZ8" s="3" t="n">
-        <x:v>27162</x:v>
+        <x:v>23158</x:v>
       </x:c>
       <x:c r="OA8" s="3" t="n">
-        <x:v>28262</x:v>
+        <x:v>29262</x:v>
       </x:c>
       <x:c r="OB8" s="3" t="n">
-        <x:v>28063</x:v>
+        <x:v>33084</x:v>
       </x:c>
       <x:c r="OC8" s="3" t="n">
-        <x:v>35898</x:v>
+        <x:v>39489</x:v>
       </x:c>
       <x:c r="OD8" s="3" t="n">
-        <x:v>48185</x:v>
+        <x:v>48056</x:v>
       </x:c>
       <x:c r="OE8" s="3" t="n">
-        <x:v>63810</x:v>
+        <x:v>60632</x:v>
       </x:c>
       <x:c r="OF8" s="3" t="n">
-        <x:v>58211</x:v>
+        <x:v>58568</x:v>
       </x:c>
       <x:c r="OG8" s="3" t="n">
-        <x:v>58408</x:v>
+        <x:v>58178</x:v>
       </x:c>
       <x:c r="OH8" s="3" t="n">
-        <x:v>68776</x:v>
+        <x:v>66149</x:v>
       </x:c>
       <x:c r="OI8" s="3" t="n">
-        <x:v>64321</x:v>
+        <x:v>64018</x:v>
       </x:c>
       <x:c r="OJ8" s="3" t="n">
-        <x:v>63830</x:v>
+        <x:v>66280</x:v>
+      </x:c>
+      <x:c r="OK8" s="3" t="n">
+        <x:v>94958</x:v>
+      </x:c>
+      <x:c r="OL8" s="3" t="n">
+        <x:v>86766</x:v>
+      </x:c>
+      <x:c r="OM8" s="3" t="n">
+        <x:v>83725</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:400">
+    <x:row r="9" spans="1:403">
       <x:c r="A9" s="2" t="s">
-        <x:v>405</x:v>
+        <x:v>408</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>400</x:v>
+        <x:v>403</x:v>
       </x:c>
       <x:c r="C9" s="3" t="n">
         <x:v>5078</x:v>
@@ -9698,7 +9761,7 @@
         <x:v>35846</x:v>
       </x:c>
       <x:c r="IX9" s="3" t="n">
-        <x:v>37873</x:v>
+        <x:v>37874</x:v>
       </x:c>
       <x:c r="IY9" s="3" t="n">
         <x:v>34868</x:v>
@@ -9713,7 +9776,7 @@
         <x:v>31546</x:v>
       </x:c>
       <x:c r="JC9" s="3" t="n">
-        <x:v>37728</x:v>
+        <x:v>37727</x:v>
       </x:c>
       <x:c r="JD9" s="3" t="n">
         <x:v>38221</x:v>
@@ -9728,16 +9791,16 @@
         <x:v>44724</x:v>
       </x:c>
       <x:c r="JH9" s="3" t="n">
-        <x:v>40023</x:v>
+        <x:v>40024</x:v>
       </x:c>
       <x:c r="JI9" s="3" t="n">
-        <x:v>43717</x:v>
+        <x:v>43718</x:v>
       </x:c>
       <x:c r="JJ9" s="3" t="n">
-        <x:v>48282</x:v>
+        <x:v>48283</x:v>
       </x:c>
       <x:c r="JK9" s="3" t="n">
-        <x:v>39916</x:v>
+        <x:v>39917</x:v>
       </x:c>
       <x:c r="JL9" s="3" t="n">
         <x:v>42247</x:v>
@@ -9749,13 +9812,13 @@
         <x:v>43899</x:v>
       </x:c>
       <x:c r="JO9" s="3" t="n">
-        <x:v>48525</x:v>
+        <x:v>48522</x:v>
       </x:c>
       <x:c r="JP9" s="3" t="n">
         <x:v>41921</x:v>
       </x:c>
       <x:c r="JQ9" s="3" t="n">
-        <x:v>46814</x:v>
+        <x:v>46813</x:v>
       </x:c>
       <x:c r="JR9" s="3" t="n">
         <x:v>47272</x:v>
@@ -9767,535 +9830,544 @@
         <x:v>53256</x:v>
       </x:c>
       <x:c r="JU9" s="3" t="n">
-        <x:v>50552</x:v>
+        <x:v>50553</x:v>
       </x:c>
       <x:c r="JV9" s="3" t="n">
-        <x:v>49389</x:v>
+        <x:v>49395</x:v>
       </x:c>
       <x:c r="JW9" s="3" t="n">
         <x:v>52925</x:v>
       </x:c>
       <x:c r="JX9" s="3" t="n">
-        <x:v>46514</x:v>
+        <x:v>46512</x:v>
       </x:c>
       <x:c r="JY9" s="3" t="n">
-        <x:v>45179</x:v>
+        <x:v>45178</x:v>
       </x:c>
       <x:c r="JZ9" s="3" t="n">
-        <x:v>47513</x:v>
+        <x:v>47512</x:v>
       </x:c>
       <x:c r="KA9" s="3" t="n">
-        <x:v>40053</x:v>
+        <x:v>40050</x:v>
       </x:c>
       <x:c r="KB9" s="3" t="n">
-        <x:v>49041</x:v>
+        <x:v>49040</x:v>
       </x:c>
       <x:c r="KC9" s="3" t="n">
-        <x:v>42671</x:v>
+        <x:v>42670</x:v>
       </x:c>
       <x:c r="KD9" s="3" t="n">
-        <x:v>43305</x:v>
+        <x:v>43304</x:v>
       </x:c>
       <x:c r="KE9" s="3" t="n">
-        <x:v>40982</x:v>
+        <x:v>40987</x:v>
       </x:c>
       <x:c r="KF9" s="3" t="n">
-        <x:v>43363</x:v>
+        <x:v>43362</x:v>
       </x:c>
       <x:c r="KG9" s="3" t="n">
-        <x:v>41947</x:v>
+        <x:v>41945</x:v>
       </x:c>
       <x:c r="KH9" s="3" t="n">
-        <x:v>41858</x:v>
+        <x:v>41867</x:v>
       </x:c>
       <x:c r="KI9" s="3" t="n">
-        <x:v>46336</x:v>
+        <x:v>46335</x:v>
       </x:c>
       <x:c r="KJ9" s="3" t="n">
-        <x:v>48034</x:v>
+        <x:v>48029</x:v>
       </x:c>
       <x:c r="KK9" s="3" t="n">
-        <x:v>50064</x:v>
+        <x:v>50063</x:v>
       </x:c>
       <x:c r="KL9" s="3" t="n">
-        <x:v>46155</x:v>
+        <x:v>46154</x:v>
       </x:c>
       <x:c r="KM9" s="3" t="n">
-        <x:v>43714</x:v>
+        <x:v>43712</x:v>
       </x:c>
       <x:c r="KN9" s="3" t="n">
-        <x:v>44825</x:v>
+        <x:v>44824</x:v>
       </x:c>
       <x:c r="KO9" s="3" t="n">
-        <x:v>50080</x:v>
+        <x:v>50078</x:v>
       </x:c>
       <x:c r="KP9" s="3" t="n">
-        <x:v>47776</x:v>
+        <x:v>47773</x:v>
       </x:c>
       <x:c r="KQ9" s="3" t="n">
-        <x:v>49489</x:v>
+        <x:v>49501</x:v>
       </x:c>
       <x:c r="KR9" s="3" t="n">
-        <x:v>44873</x:v>
+        <x:v>44868</x:v>
       </x:c>
       <x:c r="KS9" s="3" t="n">
-        <x:v>45839</x:v>
+        <x:v>45833</x:v>
       </x:c>
       <x:c r="KT9" s="3" t="n">
-        <x:v>45195</x:v>
+        <x:v>45206</x:v>
       </x:c>
       <x:c r="KU9" s="3" t="n">
-        <x:v>41316</x:v>
+        <x:v>41312</x:v>
       </x:c>
       <x:c r="KV9" s="3" t="n">
-        <x:v>40270</x:v>
+        <x:v>40265</x:v>
       </x:c>
       <x:c r="KW9" s="3" t="n">
-        <x:v>40353</x:v>
+        <x:v>40356</x:v>
       </x:c>
       <x:c r="KX9" s="3" t="n">
-        <x:v>39998</x:v>
+        <x:v>40004</x:v>
       </x:c>
       <x:c r="KY9" s="3" t="n">
-        <x:v>43798</x:v>
+        <x:v>43805</x:v>
       </x:c>
       <x:c r="KZ9" s="3" t="n">
-        <x:v>45505</x:v>
+        <x:v>45509</x:v>
       </x:c>
       <x:c r="LA9" s="3" t="n">
-        <x:v>37700</x:v>
+        <x:v>37698</x:v>
       </x:c>
       <x:c r="LB9" s="3" t="n">
-        <x:v>38518</x:v>
+        <x:v>38510</x:v>
       </x:c>
       <x:c r="LC9" s="3" t="n">
-        <x:v>32130</x:v>
+        <x:v>32135</x:v>
       </x:c>
       <x:c r="LD9" s="3" t="n">
-        <x:v>36651</x:v>
+        <x:v>36637</x:v>
       </x:c>
       <x:c r="LE9" s="3" t="n">
-        <x:v>38706</x:v>
+        <x:v>38693</x:v>
       </x:c>
       <x:c r="LF9" s="3" t="n">
-        <x:v>33645</x:v>
+        <x:v>33649</x:v>
       </x:c>
       <x:c r="LG9" s="3" t="n">
-        <x:v>37264</x:v>
+        <x:v>37259</x:v>
       </x:c>
       <x:c r="LH9" s="3" t="n">
         <x:v>40268</x:v>
       </x:c>
       <x:c r="LI9" s="3" t="n">
-        <x:v>36529</x:v>
+        <x:v>36542</x:v>
       </x:c>
       <x:c r="LJ9" s="3" t="n">
-        <x:v>36422</x:v>
+        <x:v>36440</x:v>
       </x:c>
       <x:c r="LK9" s="3" t="n">
-        <x:v>37230</x:v>
+        <x:v>37254</x:v>
       </x:c>
       <x:c r="LL9" s="3" t="n">
-        <x:v>34906</x:v>
+        <x:v>34921</x:v>
       </x:c>
       <x:c r="LM9" s="3" t="n">
-        <x:v>31344</x:v>
+        <x:v>31349</x:v>
       </x:c>
       <x:c r="LN9" s="3" t="n">
-        <x:v>28948</x:v>
+        <x:v>28902</x:v>
       </x:c>
       <x:c r="LO9" s="3" t="n">
-        <x:v>26035</x:v>
+        <x:v>26041</x:v>
       </x:c>
       <x:c r="LP9" s="3" t="n">
-        <x:v>27920</x:v>
+        <x:v>27913</x:v>
       </x:c>
       <x:c r="LQ9" s="3" t="n">
-        <x:v>27121</x:v>
+        <x:v>27082</x:v>
       </x:c>
       <x:c r="LR9" s="3" t="n">
-        <x:v>28584</x:v>
+        <x:v>28598</x:v>
       </x:c>
       <x:c r="LS9" s="3" t="n">
-        <x:v>29346</x:v>
+        <x:v>29352</x:v>
       </x:c>
       <x:c r="LT9" s="3" t="n">
-        <x:v>28001</x:v>
+        <x:v>28010</x:v>
       </x:c>
       <x:c r="LU9" s="3" t="n">
-        <x:v>30144</x:v>
+        <x:v>30166</x:v>
       </x:c>
       <x:c r="LV9" s="3" t="n">
-        <x:v>29544</x:v>
+        <x:v>29566</x:v>
       </x:c>
       <x:c r="LW9" s="3" t="n">
-        <x:v>25205</x:v>
+        <x:v>25233</x:v>
       </x:c>
       <x:c r="LX9" s="3" t="n">
-        <x:v>31748</x:v>
+        <x:v>31790</x:v>
       </x:c>
       <x:c r="LY9" s="3" t="n">
-        <x:v>33383</x:v>
+        <x:v>33445</x:v>
       </x:c>
       <x:c r="LZ9" s="3" t="n">
-        <x:v>34097</x:v>
+        <x:v>33900</x:v>
       </x:c>
       <x:c r="MA9" s="3" t="n">
-        <x:v>36851</x:v>
+        <x:v>36837</x:v>
       </x:c>
       <x:c r="MB9" s="3" t="n">
-        <x:v>36437</x:v>
+        <x:v>36516</x:v>
       </x:c>
       <x:c r="MC9" s="3" t="n">
-        <x:v>35426</x:v>
+        <x:v>35202</x:v>
       </x:c>
       <x:c r="MD9" s="3" t="n">
-        <x:v>36574</x:v>
+        <x:v>36772</x:v>
       </x:c>
       <x:c r="ME9" s="3" t="n">
-        <x:v>35932</x:v>
+        <x:v>35912</x:v>
       </x:c>
       <x:c r="MF9" s="3" t="n">
-        <x:v>35743</x:v>
+        <x:v>35894</x:v>
       </x:c>
       <x:c r="MG9" s="3" t="n">
-        <x:v>32838</x:v>
+        <x:v>32760</x:v>
       </x:c>
       <x:c r="MH9" s="3" t="n">
-        <x:v>36041</x:v>
+        <x:v>36148</x:v>
       </x:c>
       <x:c r="MI9" s="3" t="n">
-        <x:v>35166</x:v>
+        <x:v>35052</x:v>
       </x:c>
       <x:c r="MJ9" s="3" t="n">
-        <x:v>33847</x:v>
+        <x:v>34003</x:v>
       </x:c>
       <x:c r="MK9" s="3" t="n">
-        <x:v>36960</x:v>
+        <x:v>37100</x:v>
       </x:c>
       <x:c r="ML9" s="3" t="n">
-        <x:v>38415</x:v>
+        <x:v>37816</x:v>
       </x:c>
       <x:c r="MM9" s="3" t="n">
-        <x:v>39875</x:v>
+        <x:v>40026</x:v>
       </x:c>
       <x:c r="MN9" s="3" t="n">
-        <x:v>39649</x:v>
+        <x:v>39836</x:v>
       </x:c>
       <x:c r="MO9" s="3" t="n">
-        <x:v>42796</x:v>
+        <x:v>42302</x:v>
       </x:c>
       <x:c r="MP9" s="3" t="n">
-        <x:v>43250</x:v>
+        <x:v>43924</x:v>
       </x:c>
       <x:c r="MQ9" s="3" t="n">
-        <x:v>44490</x:v>
+        <x:v>44419</x:v>
       </x:c>
       <x:c r="MR9" s="3" t="n">
-        <x:v>46693</x:v>
+        <x:v>46938</x:v>
       </x:c>
       <x:c r="MS9" s="3" t="n">
-        <x:v>50668</x:v>
+        <x:v>50391</x:v>
       </x:c>
       <x:c r="MT9" s="3" t="n">
-        <x:v>49390</x:v>
+        <x:v>49529</x:v>
       </x:c>
       <x:c r="MU9" s="3" t="n">
-        <x:v>50396</x:v>
+        <x:v>49921</x:v>
       </x:c>
       <x:c r="MV9" s="3" t="n">
-        <x:v>49162</x:v>
+        <x:v>49488</x:v>
       </x:c>
       <x:c r="MW9" s="3" t="n">
-        <x:v>40933</x:v>
+        <x:v>41155</x:v>
       </x:c>
       <x:c r="MX9" s="3" t="n">
-        <x:v>38580</x:v>
+        <x:v>37705</x:v>
       </x:c>
       <x:c r="MY9" s="3" t="n">
-        <x:v>37678</x:v>
+        <x:v>38072</x:v>
       </x:c>
       <x:c r="MZ9" s="3" t="n">
-        <x:v>38272</x:v>
+        <x:v>38564</x:v>
       </x:c>
       <x:c r="NA9" s="3" t="n">
-        <x:v>43343</x:v>
+        <x:v>42547</x:v>
       </x:c>
       <x:c r="NB9" s="3" t="n">
-        <x:v>36762</x:v>
+        <x:v>37806</x:v>
       </x:c>
       <x:c r="NC9" s="3" t="n">
-        <x:v>38196</x:v>
+        <x:v>38067</x:v>
       </x:c>
       <x:c r="ND9" s="3" t="n">
-        <x:v>34184</x:v>
+        <x:v>34389</x:v>
       </x:c>
       <x:c r="NE9" s="3" t="n">
-        <x:v>32914</x:v>
+        <x:v>32601</x:v>
       </x:c>
       <x:c r="NF9" s="3" t="n">
-        <x:v>30416</x:v>
+        <x:v>30494</x:v>
       </x:c>
       <x:c r="NG9" s="3" t="n">
-        <x:v>30605</x:v>
+        <x:v>30073</x:v>
       </x:c>
       <x:c r="NH9" s="3" t="n">
-        <x:v>30387</x:v>
+        <x:v>30643</x:v>
       </x:c>
       <x:c r="NI9" s="3" t="n">
-        <x:v>39660</x:v>
+        <x:v>39897</x:v>
       </x:c>
       <x:c r="NJ9" s="3" t="n">
-        <x:v>38775</x:v>
+        <x:v>37654</x:v>
       </x:c>
       <x:c r="NK9" s="3" t="n">
-        <x:v>30428</x:v>
+        <x:v>32657</x:v>
       </x:c>
       <x:c r="NL9" s="3" t="n">
-        <x:v>35886</x:v>
+        <x:v>35940</x:v>
       </x:c>
       <x:c r="NM9" s="3" t="n">
-        <x:v>24558</x:v>
+        <x:v>22533</x:v>
       </x:c>
       <x:c r="NN9" s="3" t="n">
-        <x:v>16848</x:v>
+        <x:v>18540</x:v>
       </x:c>
       <x:c r="NO9" s="3" t="n">
-        <x:v>20963</x:v>
+        <x:v>20349</x:v>
       </x:c>
       <x:c r="NP9" s="3" t="n">
-        <x:v>25829</x:v>
+        <x:v>25393</x:v>
       </x:c>
       <x:c r="NQ9" s="3" t="n">
-        <x:v>29878</x:v>
+        <x:v>27138</x:v>
       </x:c>
       <x:c r="NR9" s="3" t="n">
-        <x:v>27292</x:v>
+        <x:v>27024</x:v>
       </x:c>
       <x:c r="NS9" s="3" t="n">
-        <x:v>24747</x:v>
+        <x:v>26732</x:v>
       </x:c>
       <x:c r="NT9" s="3" t="n">
-        <x:v>28901</x:v>
+        <x:v>28261</x:v>
       </x:c>
       <x:c r="NU9" s="3" t="n">
-        <x:v>30034</x:v>
+        <x:v>29958</x:v>
       </x:c>
       <x:c r="NV9" s="3" t="n">
-        <x:v>30371</x:v>
+        <x:v>31564</x:v>
       </x:c>
       <x:c r="NW9" s="3" t="n">
-        <x:v>37384</x:v>
+        <x:v>39315</x:v>
       </x:c>
       <x:c r="NX9" s="3" t="n">
-        <x:v>39869</x:v>
+        <x:v>39487</x:v>
       </x:c>
       <x:c r="NY9" s="3" t="n">
-        <x:v>44274</x:v>
+        <x:v>42995</x:v>
       </x:c>
       <x:c r="NZ9" s="3" t="n">
-        <x:v>50629</x:v>
+        <x:v>49220</x:v>
       </x:c>
       <x:c r="OA9" s="3" t="n">
-        <x:v>55464</x:v>
+        <x:v>56355</x:v>
       </x:c>
       <x:c r="OB9" s="3" t="n">
-        <x:v>58414</x:v>
+        <x:v>62215</x:v>
       </x:c>
       <x:c r="OC9" s="3" t="n">
-        <x:v>67745</x:v>
+        <x:v>67110</x:v>
       </x:c>
       <x:c r="OD9" s="3" t="n">
-        <x:v>76568</x:v>
+        <x:v>79248</x:v>
       </x:c>
       <x:c r="OE9" s="3" t="n">
-        <x:v>91570</x:v>
+        <x:v>90429</x:v>
       </x:c>
       <x:c r="OF9" s="3" t="n">
-        <x:v>91825</x:v>
+        <x:v>92922</x:v>
       </x:c>
       <x:c r="OG9" s="3" t="n">
-        <x:v>95957</x:v>
+        <x:v>96085</x:v>
       </x:c>
       <x:c r="OH9" s="3" t="n">
-        <x:v>108437</x:v>
+        <x:v>104718</x:v>
       </x:c>
       <x:c r="OI9" s="3" t="n">
-        <x:v>97576</x:v>
+        <x:v>100305</x:v>
       </x:c>
       <x:c r="OJ9" s="3" t="n">
-        <x:v>100954</x:v>
+        <x:v>102051</x:v>
+      </x:c>
+      <x:c r="OK9" s="3" t="n">
+        <x:v>159873</x:v>
+      </x:c>
+      <x:c r="OL9" s="3" t="n">
+        <x:v>127351</x:v>
+      </x:c>
+      <x:c r="OM9" s="3" t="n">
+        <x:v>132521</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:400">
+    <x:row r="11" spans="1:403">
       <x:c r="A11" s="4" t="s">
-        <x:v>406</x:v>
+        <x:v>409</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:400">
+    <x:row r="12" spans="1:403">
       <x:c r="A12" s="4" t="s">
-        <x:v>407</x:v>
+        <x:v>410</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:400">
+    <x:row r="14" spans="1:403">
       <x:c r="A14" s="0" t="s">
-        <x:v>408</x:v>
+        <x:v>411</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:400">
+    <x:row r="15" spans="1:403">
       <x:c r="A15" s="0" t="s">
-        <x:v>409</x:v>
+        <x:v>412</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:400">
+    <x:row r="16" spans="1:403">
       <x:c r="A16" s="0" t="s">
-        <x:v>410</x:v>
+        <x:v>413</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:400">
+    <x:row r="18" spans="1:403">
       <x:c r="A18" s="0" t="s">
-        <x:v>411</x:v>
+        <x:v>414</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:400">
+    <x:row r="19" spans="1:403">
       <x:c r="A19" s="0" t="s">
+        <x:v>415</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:403">
+      <x:c r="A21" s="0" t="s">
+        <x:v>416</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:403">
+      <x:c r="A22" s="0" t="s">
         <x:v>412</x:v>
       </x:c>
     </x:row>
-    <x:row r="21" spans="1:400">
-      <x:c r="A21" s="0" t="s">
-        <x:v>413</x:v>
+    <x:row r="23" spans="1:403">
+      <x:c r="A23" s="0" t="s">
+        <x:v>417</x:v>
       </x:c>
     </x:row>
-    <x:row r="22" spans="1:400">
-      <x:c r="A22" s="0" t="s">
-        <x:v>409</x:v>
+    <x:row r="24" spans="1:403">
+      <x:c r="A24" s="0" t="s">
+        <x:v>418</x:v>
       </x:c>
     </x:row>
-    <x:row r="23" spans="1:400">
-      <x:c r="A23" s="0" t="s">
-        <x:v>414</x:v>
+    <x:row r="25" spans="1:403">
+      <x:c r="A25" s="0" t="s">
+        <x:v>419</x:v>
       </x:c>
     </x:row>
-    <x:row r="24" spans="1:400">
-      <x:c r="A24" s="0" t="s">
-        <x:v>415</x:v>
+    <x:row r="27" spans="1:403">
+      <x:c r="A27" s="0" t="s">
+        <x:v>420</x:v>
       </x:c>
     </x:row>
-    <x:row r="25" spans="1:400">
-      <x:c r="A25" s="0" t="s">
-        <x:v>416</x:v>
+    <x:row r="28" spans="1:403">
+      <x:c r="A28" s="0" t="s">
+        <x:v>421</x:v>
       </x:c>
     </x:row>
-    <x:row r="27" spans="1:400">
-      <x:c r="A27" s="0" t="s">
-        <x:v>417</x:v>
+    <x:row r="29" spans="1:403">
+      <x:c r="A29" s="0" t="s">
+        <x:v>422</x:v>
       </x:c>
     </x:row>
-    <x:row r="28" spans="1:400">
-      <x:c r="A28" s="0" t="s">
-        <x:v>418</x:v>
+    <x:row r="33" spans="1:403">
+      <x:c r="A33" s="0" t="s">
+        <x:v>423</x:v>
       </x:c>
     </x:row>
-    <x:row r="29" spans="1:400">
-      <x:c r="A29" s="0" t="s">
-        <x:v>419</x:v>
+    <x:row r="35" spans="1:403">
+      <x:c r="A35" s="0" t="s">
+        <x:v>424</x:v>
       </x:c>
     </x:row>
-    <x:row r="33" spans="1:400">
-      <x:c r="A33" s="0" t="s">
-        <x:v>420</x:v>
+    <x:row r="36" spans="1:403">
+      <x:c r="A36" s="0" t="s">
+        <x:v>412</x:v>
       </x:c>
     </x:row>
-    <x:row r="35" spans="1:400">
-      <x:c r="A35" s="0" t="s">
-        <x:v>421</x:v>
+    <x:row r="37" spans="1:403">
+      <x:c r="A37" s="0" t="s">
+        <x:v>425</x:v>
       </x:c>
     </x:row>
-    <x:row r="36" spans="1:400">
-      <x:c r="A36" s="0" t="s">
-        <x:v>409</x:v>
+    <x:row r="38" spans="1:403">
+      <x:c r="A38" s="0" t="s">
+        <x:v>426</x:v>
       </x:c>
     </x:row>
-    <x:row r="37" spans="1:400">
-      <x:c r="A37" s="0" t="s">
-        <x:v>422</x:v>
+    <x:row r="39" spans="1:403">
+      <x:c r="A39" s="0" t="s">
+        <x:v>412</x:v>
       </x:c>
     </x:row>
-    <x:row r="38" spans="1:400">
-      <x:c r="A38" s="0" t="s">
-        <x:v>423</x:v>
+    <x:row r="40" spans="1:403">
+      <x:c r="A40" s="0" t="s">
+        <x:v>427</x:v>
       </x:c>
     </x:row>
-    <x:row r="39" spans="1:400">
-      <x:c r="A39" s="0" t="s">
-        <x:v>409</x:v>
+    <x:row r="42" spans="1:403">
+      <x:c r="A42" s="0" t="s">
+        <x:v>428</x:v>
       </x:c>
     </x:row>
-    <x:row r="40" spans="1:400">
-      <x:c r="A40" s="0" t="s">
-        <x:v>424</x:v>
+    <x:row r="43" spans="1:403">
+      <x:c r="A43" s="0" t="s">
+        <x:v>403</x:v>
       </x:c>
     </x:row>
-    <x:row r="42" spans="1:400">
-      <x:c r="A42" s="0" t="s">
-        <x:v>425</x:v>
+    <x:row r="44" spans="1:403">
+      <x:c r="A44" s="0" t="s">
+        <x:v>429</x:v>
       </x:c>
     </x:row>
-    <x:row r="43" spans="1:400">
-      <x:c r="A43" s="0" t="s">
-        <x:v>400</x:v>
+    <x:row r="48" spans="1:403">
+      <x:c r="A48" s="0" t="s">
+        <x:v>412</x:v>
       </x:c>
     </x:row>
-    <x:row r="44" spans="1:400">
-      <x:c r="A44" s="0" t="s">
-        <x:v>426</x:v>
+    <x:row r="49" spans="1:403">
+      <x:c r="A49" s="0" t="s">
+        <x:v>430</x:v>
       </x:c>
     </x:row>
-    <x:row r="48" spans="1:400">
-      <x:c r="A48" s="0" t="s">
-        <x:v>409</x:v>
+    <x:row r="51" spans="1:403">
+      <x:c r="A51" s="0" t="s">
+        <x:v>412</x:v>
       </x:c>
     </x:row>
-    <x:row r="49" spans="1:400">
-      <x:c r="A49" s="0" t="s">
-        <x:v>427</x:v>
+    <x:row r="52" spans="1:403">
+      <x:c r="A52" s="0" t="s">
+        <x:v>431</x:v>
       </x:c>
     </x:row>
-    <x:row r="51" spans="1:400">
-      <x:c r="A51" s="0" t="s">
-        <x:v>409</x:v>
+    <x:row r="55" spans="1:403">
+      <x:c r="A55" s="0" t="s">
+        <x:v>432</x:v>
       </x:c>
     </x:row>
-    <x:row r="52" spans="1:400">
-      <x:c r="A52" s="0" t="s">
-        <x:v>428</x:v>
+    <x:row r="56" spans="1:403">
+      <x:c r="A56" s="0" t="s">
+        <x:v>433</x:v>
       </x:c>
     </x:row>
-    <x:row r="55" spans="1:400">
-      <x:c r="A55" s="0" t="s">
-        <x:v>429</x:v>
+    <x:row r="58" spans="1:403">
+      <x:c r="A58" s="0" t="s">
+        <x:v>434</x:v>
       </x:c>
     </x:row>
-    <x:row r="56" spans="1:400">
-      <x:c r="A56" s="0" t="s">
-        <x:v>430</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="58" spans="1:400">
-      <x:c r="A58" s="0" t="s">
-        <x:v>431</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="59" spans="1:400">
+    <x:row r="59" spans="1:403">
       <x:c r="A59" s="0" t="s">
-        <x:v>432</x:v>
+        <x:v>435</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="2">
-    <x:mergeCell ref="A11:OJ11"/>
-    <x:mergeCell ref="A12:OJ12"/>
+    <x:mergeCell ref="A11:OM11"/>
+    <x:mergeCell ref="A12:OM12"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
